--- a/Projects/CCRU_SAND/Data/Convenience Small PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Convenience Small PoS 2018.xlsx
@@ -34,6 +34,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AO$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AO$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AO$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AO$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -45,156 +46,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="484">
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>Converted?</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t>KPI from POS 2016</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>depends on</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>To include in first calculation?</t>
-  </si>
-  <si>
-    <t>RD38010004</t>
-  </si>
-  <si>
-    <t>Convenience Small</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average </t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>2
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="485">
+  <si>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI from POS 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To include in first calculation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38010004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenience Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
 3
 4
 5
@@ -221,285 +222,285 @@
 26</t>
   </si>
   <si>
-    <t>Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Activation, Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.9л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.9л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.9л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 2L</t>
-  </si>
-  <si>
-    <t>Спрайт - 2л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.25л слим</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.9л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>28
+    <t xml:space="preserve">Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28
 29
 30
 31</t>
   </si>
   <si>
-    <t>BonAqua Still - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>33
+    <t xml:space="preserve">BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33
 34
 35</t>
   </si>
   <si>
-    <t>Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t>Tea Availability</t>
-  </si>
-  <si>
-    <t>Представленность Чая</t>
-  </si>
-  <si>
-    <t>37
+    <t xml:space="preserve">Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37
 38
 39
 40</t>
   </si>
   <si>
-    <t>Fuze Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t>Juice Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
-  </si>
-  <si>
-    <t>42
+    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42
 43
 44
 45
@@ -529,223 +530,223 @@
 69</t>
   </si>
   <si>
-    <t>Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Bodriy Citrus - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Бодрый Цитрус - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pomegranate-Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Гранат-Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pear - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Груша - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie1 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 1 - 0.11л</t>
-  </si>
-  <si>
-    <t>STANDARD 20</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>SSD полка: Доля полки</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>MAN in CAT</t>
-  </si>
-  <si>
-    <t>Warm Shelf</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>SSD полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>72
+    <t xml:space="preserve">Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Bodriy Citrus - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Бодрый Цитрус - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pomegranate-Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Гранат-Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pear - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie1 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 1 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72
 73
 74
 75
@@ -754,548 +755,551 @@
 78</t>
   </si>
   <si>
-    <t>Shelf: SKU on Eye level</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L, Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t>5449000228970, 5449000054227</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L, Sprite - 1L</t>
-  </si>
-  <si>
-    <t>5449000228956, 5449000050939</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L, Fanta Orange - 1L</t>
-  </si>
-  <si>
-    <t>5449000228963, 5449000006271</t>
-  </si>
-  <si>
-    <t>STANDARD 23</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Сок полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Сок полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>81
+    <t xml:space="preserve">Shelf: SKU on Eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228970, 5449000054227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L, Sprite - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228956, 5449000050939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L, Fanta Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228963, 5449000006271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81
 82
 83
 84
 85</t>
   </si>
   <si>
-    <t>Juice Shelf: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 21</t>
-  </si>
-  <si>
-    <t>Water Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Вода полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Water Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Вода полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>Water Shelf: BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>Вода полка: БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>STANDARD 24</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Доля полки</t>
-  </si>
-  <si>
-    <t>ice tea</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>91
+    <t xml:space="preserve">Juice Shelf: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91
 92</t>
   </si>
   <si>
-    <t>Ice Tea Shelf: Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 25</t>
-  </si>
-  <si>
-    <t>Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Энергетики полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>STANDARD 19</t>
-  </si>
-  <si>
-    <t>SSD Display 1st</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t>SSD Displays</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>95
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95
 96
 97</t>
   </si>
   <si>
-    <t>SSD Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>number of scenes</t>
-  </si>
-  <si>
-    <t>SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Lead SKU</t>
-  </si>
-  <si>
-    <t>Coca-Cola 1.5L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 1st</t>
-  </si>
-  <si>
-    <t>99
+    <t xml:space="preserve">SSD Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 1.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99
 100
 101</t>
   </si>
   <si>
-    <t>Displays Merch. Standards</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103
+    <t xml:space="preserve">Displays Merch. Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103
 104
 105</t>
   </si>
   <si>
-    <t>SSD Display 2d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Зона</t>
-  </si>
-  <si>
-    <t>Bakery</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Lead SKU Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola 0.9L/1L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 2d</t>
-  </si>
-  <si>
-    <t>107
+    <t xml:space="preserve">SSD Display 2d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Lead SKU Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 0.9L/1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107
 108</t>
   </si>
   <si>
-    <t>SSD Display 2d: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола Зеро - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.9L, Coca-Cola Zero - 1L</t>
-  </si>
-  <si>
-    <t>5449000231659, 5449000133328</t>
-  </si>
-  <si>
-    <t>Juice Display 1st</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>Juice Displays</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>110
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола Зеро - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L, Coca-Cola Zero - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000231659, 5449000133328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110
 111
 112</t>
   </si>
   <si>
-    <t>Juice Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>Produce</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>113
+    <t xml:space="preserve">Juice Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113
 114</t>
   </si>
   <si>
-    <t>Juice Display 1st: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed Juice Display 1st</t>
-  </si>
-  <si>
-    <t>116
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116
 117
 118
 119</t>
   </si>
   <si>
-    <t>Juice Display 1st: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t>sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>Store Master Data attr15</t>
-  </si>
-  <si>
-    <t>121
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121
 122</t>
   </si>
   <si>
-    <t>Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t>number of coolers with facings target and fullness target</t>
-  </si>
-  <si>
-    <t>TCCC</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t>facings TCCC/40</t>
-  </si>
-  <si>
-    <t>Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t>Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t>NUM_SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
-  </si>
-  <si>
-    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t>CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t>Cooler: Max 23</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 23 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t>126
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of coolers with facings target and fullness target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126
 127
 128
 129
@@ -1313,292 +1317,292 @@
 141</t>
   </si>
   <si>
-    <t>Cooler: BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Зеленый - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>5449000233615, 5449000189370</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Черный - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>5449000189301, 5449000189332, 5449000193124</t>
-  </si>
-  <si>
-    <t>Cooler: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler:  w/o other products</t>
-  </si>
-  <si>
-    <t>Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t>Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t>Promo Displays</t>
-  </si>
-  <si>
-    <t>Промо дисплеи</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>Promo displays SAP</t>
-  </si>
-  <si>
-    <t>Promo Displays: Facings</t>
-  </si>
-  <si>
-    <t>Промо дисплеи: Фейсинги</t>
-  </si>
-  <si>
-    <t>check_number_of_scenes_with_facings_target</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>RGM Activations</t>
-  </si>
-  <si>
-    <t>RGM Активации</t>
-  </si>
-  <si>
-    <t>146
+    <t xml:space="preserve">Cooler: BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Зеленый - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000233615, 5449000189370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Черный - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler:  w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo displays SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146
 147
 148
 149</t>
   </si>
   <si>
-    <t>RGM Activations SAP</t>
-  </si>
-  <si>
-    <t>RGM Activations: SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: SSD с едой</t>
-  </si>
-  <si>
-    <t>SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Activations: Juice &amp; Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: Сок с едой</t>
-  </si>
-  <si>
-    <t>Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
-  </si>
-  <si>
-    <t>RGM Activations: On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Активации: На ходу</t>
-  </si>
-  <si>
-    <t>On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Activations: Screen time</t>
-  </si>
-  <si>
-    <t>RGM Активации: У Экрана</t>
-  </si>
-  <si>
-    <t>Screen time</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>LOCAL 2</t>
-  </si>
-  <si>
-    <t>number of KPI Passed</t>
-  </si>
-  <si>
-    <t>Session level</t>
-  </si>
-  <si>
-    <t>LOCAL 6</t>
-  </si>
-  <si>
-    <t>KPI result</t>
-  </si>
-  <si>
-    <t>STANDARD 18</t>
-  </si>
-  <si>
-    <t>sum of KPI result</t>
-  </si>
-  <si>
-    <t>LOCAL 5</t>
-  </si>
-  <si>
-    <t>LOCAL 7</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t>Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t>Number of doors according to guide for all Coolers</t>
-  </si>
-  <si>
-    <t>Scene level</t>
-  </si>
-  <si>
-    <t>Attribute 1</t>
-  </si>
-  <si>
-    <t>POP Activated</t>
-  </si>
-  <si>
-    <t>Y for all Displays</t>
-  </si>
-  <si>
-    <t>Attribute 2</t>
-  </si>
-  <si>
-    <t>Experiantial Activation</t>
-  </si>
-  <si>
-    <t>N for all Displays</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 1</t>
-  </si>
-  <si>
-    <t>Coolers and Displays Zones</t>
-  </si>
-  <si>
-    <t>Scene attribute for all Cooler and Displays</t>
-  </si>
-  <si>
-    <t>Attribute 3</t>
-  </si>
-  <si>
-    <t>Displays Priority Occasion</t>
-  </si>
-  <si>
-    <t>No_O_A</t>
-  </si>
-  <si>
-    <t>MealsAtHo</t>
-  </si>
-  <si>
-    <t>MeTimeAtH</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>KPI Score Formula</t>
-  </si>
-  <si>
-    <t>KPI weighted Score</t>
-  </si>
-  <si>
-    <t>Will be added on the 16th of December</t>
+    <t xml:space="preserve">RGM Activations SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: SSD с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Juice &amp; Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: Сок с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: На ходу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: У Экрана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of doors according to guide for all Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP Activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiantial Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers and Displays Zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene attribute for all Cooler and Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays Priority Occasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MealsAtHo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeTimeAtH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Score Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1610,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0%"/>
@@ -1830,7 +1834,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2199,6 +2203,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2371,25 +2379,25 @@
   </sheetPr>
   <dimension ref="A1:AO162"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I114" activeCellId="0" sqref="I114"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="AC126" activeCellId="0" sqref="AC126:AF126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="21" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.663967611336"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="20.1943319838057"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="21" min="14" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12898,7 +12906,7 @@
       </c>
       <c r="AO125" s="12"/>
     </row>
-    <row r="126" customFormat="false" ht="258.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="224.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="15" t="n">
         <v>125</v>
       </c>
@@ -12951,14 +12959,18 @@
       <c r="AB126" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AC126" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD126" s="52" t="n">
+      <c r="AC126" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD126" s="92" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AE126" s="48"/>
-      <c r="AF126" s="48"/>
+      <c r="AE126" s="74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AF126" s="74" t="n">
+        <v>1</v>
+      </c>
       <c r="AG126" s="90" t="s">
         <v>381</v>
       </c>
@@ -12971,7 +12983,7 @@
         <v>2</v>
       </c>
       <c r="AL126" s="23" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM126" s="12" t="s">
         <v>367</v>
@@ -12998,10 +13010,10 @@
         <v>207</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G127" s="36" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H127" s="48" t="s">
         <v>52</v>
@@ -13085,10 +13097,10 @@
         <v>207</v>
       </c>
       <c r="F128" s="47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G128" s="36" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H128" s="48" t="s">
         <v>52</v>
@@ -13172,10 +13184,10 @@
         <v>207</v>
       </c>
       <c r="F129" s="47" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G129" s="36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H129" s="48" t="s">
         <v>52</v>
@@ -13259,10 +13271,10 @@
         <v>207</v>
       </c>
       <c r="F130" s="47" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G130" s="36" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H130" s="48" t="s">
         <v>52</v>
@@ -13346,10 +13358,10 @@
         <v>207</v>
       </c>
       <c r="F131" s="47" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G131" s="36" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H131" s="48" t="s">
         <v>52</v>
@@ -13433,10 +13445,10 @@
         <v>207</v>
       </c>
       <c r="F132" s="47" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G132" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H132" s="48" t="s">
         <v>52</v>
@@ -13520,10 +13532,10 @@
         <v>207</v>
       </c>
       <c r="F133" s="47" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G133" s="36" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H133" s="48" t="s">
         <v>52</v>
@@ -13607,10 +13619,10 @@
         <v>207</v>
       </c>
       <c r="F134" s="47" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G134" s="36" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H134" s="48" t="s">
         <v>52</v>
@@ -13694,10 +13706,10 @@
         <v>207</v>
       </c>
       <c r="F135" s="47" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G135" s="36" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H135" s="48" t="s">
         <v>52</v>
@@ -13781,10 +13793,10 @@
         <v>207</v>
       </c>
       <c r="F136" s="47" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G136" s="36" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H136" s="48" t="s">
         <v>52</v>
@@ -13868,10 +13880,10 @@
         <v>207</v>
       </c>
       <c r="F137" s="47" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G137" s="36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H137" s="48" t="s">
         <v>52</v>
@@ -13882,10 +13894,10 @@
       <c r="J137" s="48"/>
       <c r="K137" s="48"/>
       <c r="L137" s="48" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M137" s="57" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N137" s="49"/>
       <c r="O137" s="49"/>
@@ -13955,10 +13967,10 @@
         <v>207</v>
       </c>
       <c r="F138" s="47" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G138" s="36" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H138" s="48" t="s">
         <v>52</v>
@@ -13969,10 +13981,10 @@
       <c r="J138" s="48"/>
       <c r="K138" s="48"/>
       <c r="L138" s="48" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M138" s="57" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N138" s="49"/>
       <c r="O138" s="49"/>
@@ -14042,10 +14054,10 @@
         <v>207</v>
       </c>
       <c r="F139" s="47" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G139" s="36" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H139" s="48" t="s">
         <v>52</v>
@@ -14129,10 +14141,10 @@
         <v>207</v>
       </c>
       <c r="F140" s="47" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G140" s="36" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H140" s="48" t="s">
         <v>52</v>
@@ -14216,10 +14228,10 @@
         <v>207</v>
       </c>
       <c r="F141" s="47" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G141" s="36" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H141" s="48" t="s">
         <v>52</v>
@@ -14303,10 +14315,10 @@
         <v>207</v>
       </c>
       <c r="F142" s="47" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G142" s="36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H142" s="48" t="s">
         <v>52</v>
@@ -14390,13 +14402,13 @@
         <v>207</v>
       </c>
       <c r="F143" s="47" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H143" s="56" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I143" s="48"/>
       <c r="J143" s="48"/>
@@ -14467,14 +14479,14 @@
       <c r="D144" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="E144" s="92" t="s">
+      <c r="E144" s="93" t="s">
         <v>207</v>
       </c>
       <c r="F144" s="47" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H144" s="48" t="s">
         <v>363</v>
@@ -14497,11 +14509,11 @@
       <c r="T144" s="48"/>
       <c r="U144" s="48"/>
       <c r="V144" s="48" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="W144" s="48"/>
       <c r="X144" s="48"/>
-      <c r="Y144" s="93"/>
+      <c r="Y144" s="94"/>
       <c r="Z144" s="48"/>
       <c r="AA144" s="48"/>
       <c r="AB144" s="50" t="s">
@@ -14525,11 +14537,11 @@
         <v>2</v>
       </c>
       <c r="AL144" s="68" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM144" s="12"/>
       <c r="AN144" s="82" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO144" s="12"/>
     </row>
@@ -14546,17 +14558,17 @@
       <c r="D145" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="E145" s="92" t="s">
+      <c r="E145" s="93" t="s">
         <v>207</v>
       </c>
       <c r="F145" s="47" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="H145" s="94" t="s">
         <v>434</v>
+      </c>
+      <c r="H145" s="95" t="s">
+        <v>435</v>
       </c>
       <c r="I145" s="48" t="n">
         <v>1</v>
@@ -14584,18 +14596,18 @@
       <c r="T145" s="48"/>
       <c r="U145" s="48"/>
       <c r="V145" s="48" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="W145" s="48"/>
       <c r="X145" s="48"/>
-      <c r="Y145" s="93"/>
+      <c r="Y145" s="94"/>
       <c r="Z145" s="48"/>
       <c r="AA145" s="48"/>
       <c r="AB145" s="50" t="s">
         <v>48</v>
       </c>
       <c r="AC145" s="48" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AD145" s="52" t="n">
         <v>0</v>
@@ -14613,8 +14625,8 @@
       </c>
       <c r="AL145" s="12"/>
       <c r="AM145" s="12"/>
-      <c r="AN145" s="95" t="s">
-        <v>428</v>
+      <c r="AN145" s="96" t="s">
+        <v>429</v>
       </c>
       <c r="AO145" s="12"/>
     </row>
@@ -14635,10 +14647,10 @@
         <v>207</v>
       </c>
       <c r="F146" s="47" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H146" s="47" t="s">
         <v>210</v>
@@ -14665,7 +14677,7 @@
       <c r="V146" s="48"/>
       <c r="W146" s="48"/>
       <c r="X146" s="48"/>
-      <c r="Y146" s="93"/>
+      <c r="Y146" s="94"/>
       <c r="Z146" s="48"/>
       <c r="AA146" s="48"/>
       <c r="AB146" s="50" t="s">
@@ -14689,11 +14701,11 @@
         <v>2</v>
       </c>
       <c r="AL146" s="23" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM146" s="12"/>
-      <c r="AN146" s="96" t="s">
-        <v>439</v>
+      <c r="AN146" s="97" t="s">
+        <v>440</v>
       </c>
       <c r="AO146" s="12"/>
     </row>
@@ -14714,10 +14726,10 @@
         <v>207</v>
       </c>
       <c r="F147" s="47" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H147" s="47" t="s">
         <v>288</v>
@@ -14742,11 +14754,11 @@
       <c r="T147" s="48"/>
       <c r="U147" s="48"/>
       <c r="V147" s="48"/>
-      <c r="W147" s="97" t="s">
-        <v>442</v>
+      <c r="W147" s="98" t="s">
+        <v>443</v>
       </c>
       <c r="X147" s="48"/>
-      <c r="Y147" s="98"/>
+      <c r="Y147" s="99"/>
       <c r="Z147" s="48"/>
       <c r="AA147" s="48"/>
       <c r="AB147" s="50" t="s">
@@ -14772,7 +14784,7 @@
       <c r="AL147" s="47"/>
       <c r="AM147" s="47"/>
       <c r="AN147" s="47" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO147" s="12"/>
     </row>
@@ -14793,10 +14805,10 @@
         <v>207</v>
       </c>
       <c r="F148" s="47" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H148" s="47" t="s">
         <v>288</v>
@@ -14821,11 +14833,11 @@
       <c r="T148" s="48"/>
       <c r="U148" s="48"/>
       <c r="V148" s="48"/>
-      <c r="W148" s="97" t="s">
-        <v>445</v>
+      <c r="W148" s="98" t="s">
+        <v>446</v>
       </c>
       <c r="X148" s="48"/>
-      <c r="Y148" s="98"/>
+      <c r="Y148" s="99"/>
       <c r="Z148" s="48"/>
       <c r="AA148" s="48"/>
       <c r="AB148" s="50" t="s">
@@ -14851,7 +14863,7 @@
       <c r="AL148" s="47"/>
       <c r="AM148" s="47"/>
       <c r="AN148" s="47" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO148" s="12"/>
     </row>
@@ -14872,10 +14884,10 @@
         <v>207</v>
       </c>
       <c r="F149" s="47" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H149" s="47" t="s">
         <v>288</v>
@@ -14900,11 +14912,11 @@
       <c r="T149" s="48"/>
       <c r="U149" s="48"/>
       <c r="V149" s="48"/>
-      <c r="W149" s="97" t="s">
-        <v>448</v>
+      <c r="W149" s="98" t="s">
+        <v>449</v>
       </c>
       <c r="X149" s="48"/>
-      <c r="Y149" s="98"/>
+      <c r="Y149" s="99"/>
       <c r="Z149" s="48"/>
       <c r="AA149" s="48"/>
       <c r="AB149" s="50" t="s">
@@ -14930,7 +14942,7 @@
       <c r="AL149" s="47"/>
       <c r="AM149" s="47"/>
       <c r="AN149" s="47" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO149" s="12"/>
     </row>
@@ -14951,10 +14963,10 @@
         <v>207</v>
       </c>
       <c r="F150" s="47" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H150" s="47" t="s">
         <v>288</v>
@@ -14979,11 +14991,11 @@
       <c r="T150" s="48"/>
       <c r="U150" s="48"/>
       <c r="V150" s="48"/>
-      <c r="W150" s="97" t="s">
-        <v>451</v>
+      <c r="W150" s="98" t="s">
+        <v>452</v>
       </c>
       <c r="X150" s="48"/>
-      <c r="Y150" s="98"/>
+      <c r="Y150" s="99"/>
       <c r="Z150" s="48"/>
       <c r="AA150" s="48"/>
       <c r="AB150" s="50" t="s">
@@ -15009,7 +15021,7 @@
       <c r="AL150" s="47"/>
       <c r="AM150" s="47"/>
       <c r="AN150" s="47" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO150" s="50"/>
     </row>
@@ -15023,60 +15035,60 @@
       <c r="C151" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D151" s="99" t="s">
-        <v>452</v>
-      </c>
-      <c r="E151" s="100" t="s">
+      <c r="D151" s="100" t="s">
         <v>453</v>
       </c>
-      <c r="F151" s="101" t="s">
+      <c r="E151" s="101" t="s">
+        <v>454</v>
+      </c>
+      <c r="F151" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="G151" s="101"/>
-      <c r="H151" s="102" t="s">
-        <v>454</v>
-      </c>
-      <c r="I151" s="103" t="s">
+      <c r="G151" s="102"/>
+      <c r="H151" s="103" t="s">
         <v>455</v>
       </c>
-      <c r="J151" s="102"/>
-      <c r="K151" s="104"/>
-      <c r="L151" s="104"/>
-      <c r="M151" s="102"/>
-      <c r="N151" s="102"/>
-      <c r="O151" s="102"/>
-      <c r="P151" s="102"/>
-      <c r="Q151" s="102"/>
-      <c r="R151" s="102"/>
-      <c r="S151" s="102"/>
-      <c r="T151" s="102"/>
-      <c r="U151" s="102"/>
-      <c r="V151" s="102"/>
-      <c r="W151" s="102"/>
-      <c r="X151" s="102"/>
-      <c r="Y151" s="105"/>
-      <c r="Z151" s="102"/>
-      <c r="AA151" s="102"/>
-      <c r="AB151" s="102"/>
-      <c r="AC151" s="102"/>
-      <c r="AD151" s="106" t="n">
+      <c r="I151" s="104" t="s">
+        <v>456</v>
+      </c>
+      <c r="J151" s="103"/>
+      <c r="K151" s="105"/>
+      <c r="L151" s="105"/>
+      <c r="M151" s="103"/>
+      <c r="N151" s="103"/>
+      <c r="O151" s="103"/>
+      <c r="P151" s="103"/>
+      <c r="Q151" s="103"/>
+      <c r="R151" s="103"/>
+      <c r="S151" s="103"/>
+      <c r="T151" s="103"/>
+      <c r="U151" s="103"/>
+      <c r="V151" s="103"/>
+      <c r="W151" s="103"/>
+      <c r="X151" s="103"/>
+      <c r="Y151" s="106"/>
+      <c r="Z151" s="103"/>
+      <c r="AA151" s="103"/>
+      <c r="AB151" s="103"/>
+      <c r="AC151" s="103"/>
+      <c r="AD151" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="AE151" s="102"/>
-      <c r="AF151" s="102"/>
-      <c r="AG151" s="102"/>
-      <c r="AH151" s="102"/>
-      <c r="AI151" s="102"/>
+      <c r="AE151" s="103"/>
+      <c r="AF151" s="103"/>
+      <c r="AG151" s="103"/>
+      <c r="AH151" s="103"/>
+      <c r="AI151" s="103"/>
       <c r="AJ151" s="33" t="n">
         <v>150</v>
       </c>
-      <c r="AK151" s="107" t="s">
+      <c r="AK151" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="AL151" s="102"/>
-      <c r="AM151" s="102"/>
-      <c r="AN151" s="102"/>
-      <c r="AO151" s="102"/>
+      <c r="AL151" s="103"/>
+      <c r="AM151" s="103"/>
+      <c r="AN151" s="103"/>
+      <c r="AO151" s="103"/>
     </row>
     <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="15" t="n">
@@ -15088,60 +15100,60 @@
       <c r="C152" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D152" s="99" t="s">
-        <v>452</v>
+      <c r="D152" s="100" t="s">
+        <v>453</v>
       </c>
       <c r="E152" s="82" t="s">
+        <v>457</v>
+      </c>
+      <c r="F152" s="97" t="s">
+        <v>440</v>
+      </c>
+      <c r="G152" s="109"/>
+      <c r="H152" s="103" t="s">
+        <v>458</v>
+      </c>
+      <c r="I152" s="104" t="s">
         <v>456</v>
       </c>
-      <c r="F152" s="96" t="s">
-        <v>439</v>
-      </c>
-      <c r="G152" s="108"/>
-      <c r="H152" s="102" t="s">
-        <v>457</v>
-      </c>
-      <c r="I152" s="103" t="s">
-        <v>455</v>
-      </c>
-      <c r="J152" s="102"/>
-      <c r="K152" s="104"/>
-      <c r="L152" s="104"/>
-      <c r="M152" s="102"/>
-      <c r="N152" s="102"/>
-      <c r="O152" s="102"/>
-      <c r="P152" s="102"/>
-      <c r="Q152" s="102"/>
-      <c r="R152" s="102"/>
-      <c r="S152" s="102"/>
-      <c r="T152" s="102"/>
-      <c r="U152" s="102"/>
-      <c r="V152" s="102"/>
-      <c r="W152" s="102"/>
-      <c r="X152" s="102"/>
-      <c r="Y152" s="105"/>
-      <c r="Z152" s="102"/>
-      <c r="AA152" s="102"/>
-      <c r="AB152" s="102"/>
-      <c r="AC152" s="102"/>
-      <c r="AD152" s="109" t="n">
+      <c r="J152" s="103"/>
+      <c r="K152" s="105"/>
+      <c r="L152" s="105"/>
+      <c r="M152" s="103"/>
+      <c r="N152" s="103"/>
+      <c r="O152" s="103"/>
+      <c r="P152" s="103"/>
+      <c r="Q152" s="103"/>
+      <c r="R152" s="103"/>
+      <c r="S152" s="103"/>
+      <c r="T152" s="103"/>
+      <c r="U152" s="103"/>
+      <c r="V152" s="103"/>
+      <c r="W152" s="103"/>
+      <c r="X152" s="103"/>
+      <c r="Y152" s="106"/>
+      <c r="Z152" s="103"/>
+      <c r="AA152" s="103"/>
+      <c r="AB152" s="103"/>
+      <c r="AC152" s="103"/>
+      <c r="AD152" s="110" t="n">
         <v>0</v>
       </c>
-      <c r="AE152" s="102"/>
-      <c r="AF152" s="102"/>
-      <c r="AG152" s="102"/>
-      <c r="AH152" s="102"/>
-      <c r="AI152" s="102"/>
+      <c r="AE152" s="103"/>
+      <c r="AF152" s="103"/>
+      <c r="AG152" s="103"/>
+      <c r="AH152" s="103"/>
+      <c r="AI152" s="103"/>
       <c r="AJ152" s="21" t="n">
         <v>151</v>
       </c>
-      <c r="AK152" s="107" t="s">
+      <c r="AK152" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="AL152" s="102"/>
-      <c r="AM152" s="102"/>
-      <c r="AN152" s="102"/>
-      <c r="AO152" s="102"/>
+      <c r="AL152" s="103"/>
+      <c r="AM152" s="103"/>
+      <c r="AN152" s="103"/>
+      <c r="AO152" s="103"/>
     </row>
     <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="25" t="n">
@@ -15153,60 +15165,60 @@
       <c r="C153" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D153" s="99" t="s">
-        <v>452</v>
+      <c r="D153" s="100" t="s">
+        <v>453</v>
       </c>
       <c r="E153" s="82" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F153" s="82" t="s">
         <v>382</v>
       </c>
-      <c r="G153" s="108"/>
-      <c r="H153" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="I153" s="103" t="s">
-        <v>455</v>
-      </c>
-      <c r="J153" s="102"/>
-      <c r="K153" s="104"/>
-      <c r="L153" s="104"/>
-      <c r="M153" s="102"/>
-      <c r="N153" s="102"/>
-      <c r="O153" s="102"/>
-      <c r="P153" s="102"/>
-      <c r="Q153" s="102"/>
-      <c r="R153" s="102"/>
-      <c r="S153" s="102"/>
-      <c r="T153" s="102"/>
-      <c r="U153" s="102"/>
-      <c r="V153" s="102"/>
-      <c r="W153" s="102"/>
-      <c r="X153" s="102"/>
-      <c r="Y153" s="105"/>
-      <c r="Z153" s="102"/>
-      <c r="AA153" s="102"/>
-      <c r="AB153" s="102"/>
-      <c r="AC153" s="102"/>
-      <c r="AD153" s="106" t="n">
+      <c r="G153" s="109"/>
+      <c r="H153" s="103" t="s">
+        <v>460</v>
+      </c>
+      <c r="I153" s="104" t="s">
+        <v>456</v>
+      </c>
+      <c r="J153" s="103"/>
+      <c r="K153" s="105"/>
+      <c r="L153" s="105"/>
+      <c r="M153" s="103"/>
+      <c r="N153" s="103"/>
+      <c r="O153" s="103"/>
+      <c r="P153" s="103"/>
+      <c r="Q153" s="103"/>
+      <c r="R153" s="103"/>
+      <c r="S153" s="103"/>
+      <c r="T153" s="103"/>
+      <c r="U153" s="103"/>
+      <c r="V153" s="103"/>
+      <c r="W153" s="103"/>
+      <c r="X153" s="103"/>
+      <c r="Y153" s="106"/>
+      <c r="Z153" s="103"/>
+      <c r="AA153" s="103"/>
+      <c r="AB153" s="103"/>
+      <c r="AC153" s="103"/>
+      <c r="AD153" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="AE153" s="102"/>
-      <c r="AF153" s="102"/>
-      <c r="AG153" s="102"/>
-      <c r="AH153" s="102"/>
-      <c r="AI153" s="102"/>
+      <c r="AE153" s="103"/>
+      <c r="AF153" s="103"/>
+      <c r="AG153" s="103"/>
+      <c r="AH153" s="103"/>
+      <c r="AI153" s="103"/>
       <c r="AJ153" s="33" t="n">
         <v>152</v>
       </c>
-      <c r="AK153" s="107" t="s">
+      <c r="AK153" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="AL153" s="102"/>
-      <c r="AM153" s="102"/>
-      <c r="AN153" s="102"/>
-      <c r="AO153" s="102"/>
+      <c r="AL153" s="103"/>
+      <c r="AM153" s="103"/>
+      <c r="AN153" s="103"/>
+      <c r="AO153" s="103"/>
     </row>
     <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="n">
@@ -15218,60 +15230,60 @@
       <c r="C154" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D154" s="99" t="s">
-        <v>452</v>
+      <c r="D154" s="100" t="s">
+        <v>453</v>
       </c>
       <c r="E154" s="82" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F154" s="82" t="s">
-        <v>431</v>
-      </c>
-      <c r="G154" s="108"/>
-      <c r="H154" s="102" t="s">
-        <v>457</v>
-      </c>
-      <c r="I154" s="103" t="s">
-        <v>455</v>
-      </c>
-      <c r="J154" s="102"/>
-      <c r="K154" s="104"/>
-      <c r="L154" s="104"/>
-      <c r="M154" s="102"/>
-      <c r="N154" s="102"/>
-      <c r="O154" s="102"/>
-      <c r="P154" s="102"/>
-      <c r="Q154" s="102"/>
-      <c r="R154" s="102"/>
-      <c r="S154" s="102"/>
-      <c r="T154" s="102"/>
-      <c r="U154" s="102"/>
-      <c r="V154" s="102"/>
-      <c r="W154" s="102"/>
-      <c r="X154" s="102"/>
-      <c r="Y154" s="105"/>
-      <c r="Z154" s="102"/>
-      <c r="AA154" s="102"/>
-      <c r="AB154" s="102"/>
-      <c r="AC154" s="102"/>
-      <c r="AD154" s="106" t="n">
+        <v>432</v>
+      </c>
+      <c r="G154" s="109"/>
+      <c r="H154" s="103" t="s">
+        <v>458</v>
+      </c>
+      <c r="I154" s="104" t="s">
+        <v>456</v>
+      </c>
+      <c r="J154" s="103"/>
+      <c r="K154" s="105"/>
+      <c r="L154" s="105"/>
+      <c r="M154" s="103"/>
+      <c r="N154" s="103"/>
+      <c r="O154" s="103"/>
+      <c r="P154" s="103"/>
+      <c r="Q154" s="103"/>
+      <c r="R154" s="103"/>
+      <c r="S154" s="103"/>
+      <c r="T154" s="103"/>
+      <c r="U154" s="103"/>
+      <c r="V154" s="103"/>
+      <c r="W154" s="103"/>
+      <c r="X154" s="103"/>
+      <c r="Y154" s="106"/>
+      <c r="Z154" s="103"/>
+      <c r="AA154" s="103"/>
+      <c r="AB154" s="103"/>
+      <c r="AC154" s="103"/>
+      <c r="AD154" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="AE154" s="102"/>
-      <c r="AF154" s="102"/>
-      <c r="AG154" s="102"/>
-      <c r="AH154" s="102"/>
-      <c r="AI154" s="102"/>
+      <c r="AE154" s="103"/>
+      <c r="AF154" s="103"/>
+      <c r="AG154" s="103"/>
+      <c r="AH154" s="103"/>
+      <c r="AI154" s="103"/>
       <c r="AJ154" s="21" t="n">
         <v>153</v>
       </c>
-      <c r="AK154" s="107" t="s">
+      <c r="AK154" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="AL154" s="102"/>
-      <c r="AM154" s="102"/>
-      <c r="AN154" s="102"/>
-      <c r="AO154" s="102"/>
+      <c r="AL154" s="103"/>
+      <c r="AM154" s="103"/>
+      <c r="AN154" s="103"/>
+      <c r="AO154" s="103"/>
     </row>
     <row r="155" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="25" t="n">
@@ -15283,60 +15295,60 @@
       <c r="C155" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D155" s="99" t="s">
-        <v>452</v>
+      <c r="D155" s="100" t="s">
+        <v>453</v>
       </c>
       <c r="E155" s="82" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F155" s="82" t="s">
         <v>299</v>
       </c>
-      <c r="G155" s="108"/>
-      <c r="H155" s="104" t="s">
-        <v>454</v>
-      </c>
-      <c r="I155" s="103" t="s">
+      <c r="G155" s="109"/>
+      <c r="H155" s="105" t="s">
         <v>455</v>
       </c>
-      <c r="J155" s="102"/>
-      <c r="K155" s="104"/>
-      <c r="L155" s="104"/>
-      <c r="M155" s="102"/>
-      <c r="N155" s="102"/>
-      <c r="O155" s="102"/>
-      <c r="P155" s="102"/>
-      <c r="Q155" s="102"/>
-      <c r="R155" s="102"/>
-      <c r="S155" s="102"/>
-      <c r="T155" s="102"/>
-      <c r="U155" s="102"/>
-      <c r="V155" s="102"/>
-      <c r="W155" s="102"/>
-      <c r="X155" s="102"/>
-      <c r="Y155" s="105"/>
-      <c r="Z155" s="102"/>
-      <c r="AA155" s="102"/>
-      <c r="AB155" s="102"/>
-      <c r="AC155" s="102"/>
-      <c r="AD155" s="106" t="n">
+      <c r="I155" s="104" t="s">
+        <v>456</v>
+      </c>
+      <c r="J155" s="103"/>
+      <c r="K155" s="105"/>
+      <c r="L155" s="105"/>
+      <c r="M155" s="103"/>
+      <c r="N155" s="103"/>
+      <c r="O155" s="103"/>
+      <c r="P155" s="103"/>
+      <c r="Q155" s="103"/>
+      <c r="R155" s="103"/>
+      <c r="S155" s="103"/>
+      <c r="T155" s="103"/>
+      <c r="U155" s="103"/>
+      <c r="V155" s="103"/>
+      <c r="W155" s="103"/>
+      <c r="X155" s="103"/>
+      <c r="Y155" s="106"/>
+      <c r="Z155" s="103"/>
+      <c r="AA155" s="103"/>
+      <c r="AB155" s="103"/>
+      <c r="AC155" s="103"/>
+      <c r="AD155" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="AE155" s="102"/>
-      <c r="AF155" s="102"/>
-      <c r="AG155" s="102"/>
-      <c r="AH155" s="102"/>
-      <c r="AI155" s="102"/>
+      <c r="AE155" s="103"/>
+      <c r="AF155" s="103"/>
+      <c r="AG155" s="103"/>
+      <c r="AH155" s="103"/>
+      <c r="AI155" s="103"/>
       <c r="AJ155" s="33" t="n">
         <v>154</v>
       </c>
-      <c r="AK155" s="107" t="s">
+      <c r="AK155" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="AL155" s="102"/>
-      <c r="AM155" s="102"/>
-      <c r="AN155" s="102"/>
-      <c r="AO155" s="102"/>
+      <c r="AL155" s="103"/>
+      <c r="AM155" s="103"/>
+      <c r="AN155" s="103"/>
+      <c r="AO155" s="103"/>
     </row>
     <row r="156" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="15" t="n">
@@ -15348,60 +15360,60 @@
       <c r="C156" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D156" s="99" t="s">
-        <v>452</v>
+      <c r="D156" s="100" t="s">
+        <v>453</v>
       </c>
       <c r="E156" s="82" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F156" s="82" t="s">
-        <v>463</v>
-      </c>
-      <c r="G156" s="108"/>
-      <c r="H156" s="104" t="s">
         <v>464</v>
       </c>
-      <c r="I156" s="103" t="s">
+      <c r="G156" s="109"/>
+      <c r="H156" s="105" t="s">
         <v>465</v>
       </c>
-      <c r="J156" s="102"/>
-      <c r="K156" s="104"/>
-      <c r="L156" s="104"/>
-      <c r="M156" s="102"/>
-      <c r="N156" s="102"/>
-      <c r="O156" s="102"/>
-      <c r="P156" s="102"/>
-      <c r="Q156" s="102"/>
-      <c r="R156" s="102"/>
-      <c r="S156" s="102"/>
-      <c r="T156" s="102"/>
-      <c r="U156" s="102"/>
-      <c r="V156" s="102"/>
-      <c r="W156" s="102"/>
-      <c r="X156" s="102"/>
-      <c r="Y156" s="105"/>
-      <c r="Z156" s="102"/>
-      <c r="AA156" s="102"/>
-      <c r="AB156" s="102"/>
-      <c r="AC156" s="102"/>
-      <c r="AD156" s="102" t="n">
+      <c r="I156" s="104" t="s">
+        <v>466</v>
+      </c>
+      <c r="J156" s="103"/>
+      <c r="K156" s="105"/>
+      <c r="L156" s="105"/>
+      <c r="M156" s="103"/>
+      <c r="N156" s="103"/>
+      <c r="O156" s="103"/>
+      <c r="P156" s="103"/>
+      <c r="Q156" s="103"/>
+      <c r="R156" s="103"/>
+      <c r="S156" s="103"/>
+      <c r="T156" s="103"/>
+      <c r="U156" s="103"/>
+      <c r="V156" s="103"/>
+      <c r="W156" s="103"/>
+      <c r="X156" s="103"/>
+      <c r="Y156" s="106"/>
+      <c r="Z156" s="103"/>
+      <c r="AA156" s="103"/>
+      <c r="AB156" s="103"/>
+      <c r="AC156" s="103"/>
+      <c r="AD156" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="AE156" s="102"/>
-      <c r="AF156" s="102"/>
-      <c r="AG156" s="102"/>
-      <c r="AH156" s="102"/>
-      <c r="AI156" s="102"/>
+      <c r="AE156" s="103"/>
+      <c r="AF156" s="103"/>
+      <c r="AG156" s="103"/>
+      <c r="AH156" s="103"/>
+      <c r="AI156" s="103"/>
       <c r="AJ156" s="21" t="n">
         <v>155</v>
       </c>
-      <c r="AK156" s="107" t="s">
+      <c r="AK156" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="AL156" s="102"/>
-      <c r="AM156" s="102"/>
-      <c r="AN156" s="102"/>
-      <c r="AO156" s="102"/>
+      <c r="AL156" s="103"/>
+      <c r="AM156" s="103"/>
+      <c r="AN156" s="103"/>
+      <c r="AO156" s="103"/>
     </row>
     <row r="157" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="25" t="n">
@@ -15413,60 +15425,60 @@
       <c r="C157" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D157" s="99" t="s">
-        <v>452</v>
+      <c r="D157" s="100" t="s">
+        <v>453</v>
       </c>
       <c r="E157" s="82" t="s">
+        <v>467</v>
+      </c>
+      <c r="F157" s="82" t="s">
+        <v>468</v>
+      </c>
+      <c r="G157" s="109"/>
+      <c r="H157" s="105" t="s">
+        <v>469</v>
+      </c>
+      <c r="I157" s="104" t="s">
         <v>466</v>
       </c>
-      <c r="F157" s="82" t="s">
-        <v>467</v>
-      </c>
-      <c r="G157" s="108"/>
-      <c r="H157" s="104" t="s">
-        <v>468</v>
-      </c>
-      <c r="I157" s="103" t="s">
-        <v>465</v>
-      </c>
-      <c r="J157" s="102"/>
-      <c r="K157" s="104"/>
-      <c r="L157" s="104"/>
-      <c r="M157" s="102"/>
-      <c r="N157" s="102"/>
-      <c r="O157" s="102"/>
-      <c r="P157" s="102"/>
-      <c r="Q157" s="102"/>
-      <c r="R157" s="102"/>
-      <c r="S157" s="102"/>
-      <c r="T157" s="102"/>
-      <c r="U157" s="102"/>
-      <c r="V157" s="102"/>
-      <c r="W157" s="102"/>
-      <c r="X157" s="102"/>
-      <c r="Y157" s="105"/>
-      <c r="Z157" s="102"/>
-      <c r="AA157" s="102"/>
-      <c r="AB157" s="102"/>
-      <c r="AC157" s="102"/>
-      <c r="AD157" s="102" t="n">
+      <c r="J157" s="103"/>
+      <c r="K157" s="105"/>
+      <c r="L157" s="105"/>
+      <c r="M157" s="103"/>
+      <c r="N157" s="103"/>
+      <c r="O157" s="103"/>
+      <c r="P157" s="103"/>
+      <c r="Q157" s="103"/>
+      <c r="R157" s="103"/>
+      <c r="S157" s="103"/>
+      <c r="T157" s="103"/>
+      <c r="U157" s="103"/>
+      <c r="V157" s="103"/>
+      <c r="W157" s="103"/>
+      <c r="X157" s="103"/>
+      <c r="Y157" s="106"/>
+      <c r="Z157" s="103"/>
+      <c r="AA157" s="103"/>
+      <c r="AB157" s="103"/>
+      <c r="AC157" s="103"/>
+      <c r="AD157" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="AE157" s="102"/>
-      <c r="AF157" s="102"/>
-      <c r="AG157" s="102"/>
-      <c r="AH157" s="102"/>
-      <c r="AI157" s="102"/>
+      <c r="AE157" s="103"/>
+      <c r="AF157" s="103"/>
+      <c r="AG157" s="103"/>
+      <c r="AH157" s="103"/>
+      <c r="AI157" s="103"/>
       <c r="AJ157" s="33" t="n">
         <v>156</v>
       </c>
-      <c r="AK157" s="107" t="s">
+      <c r="AK157" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="AL157" s="102"/>
-      <c r="AM157" s="102"/>
-      <c r="AN157" s="102"/>
-      <c r="AO157" s="102"/>
+      <c r="AL157" s="103"/>
+      <c r="AM157" s="103"/>
+      <c r="AN157" s="103"/>
+      <c r="AO157" s="103"/>
     </row>
     <row r="158" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="15" t="n">
@@ -15478,60 +15490,60 @@
       <c r="C158" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D158" s="99" t="s">
-        <v>452</v>
+      <c r="D158" s="100" t="s">
+        <v>453</v>
       </c>
       <c r="E158" s="82" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F158" s="82" t="s">
-        <v>470</v>
-      </c>
-      <c r="G158" s="108"/>
-      <c r="H158" s="104" t="s">
         <v>471</v>
       </c>
-      <c r="I158" s="103" t="s">
-        <v>465</v>
-      </c>
-      <c r="J158" s="102"/>
-      <c r="K158" s="104"/>
-      <c r="L158" s="104"/>
-      <c r="M158" s="102"/>
-      <c r="N158" s="102"/>
-      <c r="O158" s="102"/>
-      <c r="P158" s="102"/>
-      <c r="Q158" s="102"/>
-      <c r="R158" s="102"/>
-      <c r="S158" s="102"/>
-      <c r="T158" s="102"/>
-      <c r="U158" s="102"/>
-      <c r="V158" s="102"/>
-      <c r="W158" s="102"/>
-      <c r="X158" s="102"/>
-      <c r="Y158" s="105"/>
-      <c r="Z158" s="102"/>
-      <c r="AA158" s="102"/>
-      <c r="AB158" s="102"/>
-      <c r="AC158" s="102"/>
-      <c r="AD158" s="102" t="n">
+      <c r="G158" s="109"/>
+      <c r="H158" s="105" t="s">
+        <v>472</v>
+      </c>
+      <c r="I158" s="104" t="s">
+        <v>466</v>
+      </c>
+      <c r="J158" s="103"/>
+      <c r="K158" s="105"/>
+      <c r="L158" s="105"/>
+      <c r="M158" s="103"/>
+      <c r="N158" s="103"/>
+      <c r="O158" s="103"/>
+      <c r="P158" s="103"/>
+      <c r="Q158" s="103"/>
+      <c r="R158" s="103"/>
+      <c r="S158" s="103"/>
+      <c r="T158" s="103"/>
+      <c r="U158" s="103"/>
+      <c r="V158" s="103"/>
+      <c r="W158" s="103"/>
+      <c r="X158" s="103"/>
+      <c r="Y158" s="106"/>
+      <c r="Z158" s="103"/>
+      <c r="AA158" s="103"/>
+      <c r="AB158" s="103"/>
+      <c r="AC158" s="103"/>
+      <c r="AD158" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="AE158" s="102"/>
-      <c r="AF158" s="102"/>
-      <c r="AG158" s="102"/>
-      <c r="AH158" s="102"/>
-      <c r="AI158" s="102"/>
+      <c r="AE158" s="103"/>
+      <c r="AF158" s="103"/>
+      <c r="AG158" s="103"/>
+      <c r="AH158" s="103"/>
+      <c r="AI158" s="103"/>
       <c r="AJ158" s="21" t="n">
         <v>157</v>
       </c>
-      <c r="AK158" s="107" t="s">
+      <c r="AK158" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="AL158" s="102"/>
-      <c r="AM158" s="102"/>
-      <c r="AN158" s="102"/>
-      <c r="AO158" s="102"/>
+      <c r="AL158" s="103"/>
+      <c r="AM158" s="103"/>
+      <c r="AN158" s="103"/>
+      <c r="AO158" s="103"/>
     </row>
     <row r="159" customFormat="false" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="25" t="n">
@@ -15543,60 +15555,60 @@
       <c r="C159" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D159" s="99" t="s">
-        <v>452</v>
+      <c r="D159" s="100" t="s">
+        <v>453</v>
       </c>
       <c r="E159" s="82" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F159" s="82" t="s">
-        <v>473</v>
-      </c>
-      <c r="G159" s="108"/>
-      <c r="H159" s="104" t="s">
         <v>474</v>
       </c>
-      <c r="I159" s="103" t="s">
-        <v>465</v>
-      </c>
-      <c r="J159" s="102"/>
-      <c r="K159" s="104"/>
-      <c r="L159" s="104"/>
-      <c r="M159" s="102"/>
-      <c r="N159" s="102"/>
-      <c r="O159" s="102"/>
-      <c r="P159" s="102"/>
-      <c r="Q159" s="102"/>
-      <c r="R159" s="102"/>
-      <c r="S159" s="102"/>
-      <c r="T159" s="102"/>
-      <c r="U159" s="102"/>
-      <c r="V159" s="102"/>
-      <c r="W159" s="102"/>
-      <c r="X159" s="102"/>
-      <c r="Y159" s="105"/>
-      <c r="Z159" s="102"/>
-      <c r="AA159" s="102"/>
-      <c r="AB159" s="102"/>
-      <c r="AC159" s="102"/>
-      <c r="AD159" s="102" t="n">
+      <c r="G159" s="109"/>
+      <c r="H159" s="105" t="s">
+        <v>475</v>
+      </c>
+      <c r="I159" s="104" t="s">
+        <v>466</v>
+      </c>
+      <c r="J159" s="103"/>
+      <c r="K159" s="105"/>
+      <c r="L159" s="105"/>
+      <c r="M159" s="103"/>
+      <c r="N159" s="103"/>
+      <c r="O159" s="103"/>
+      <c r="P159" s="103"/>
+      <c r="Q159" s="103"/>
+      <c r="R159" s="103"/>
+      <c r="S159" s="103"/>
+      <c r="T159" s="103"/>
+      <c r="U159" s="103"/>
+      <c r="V159" s="103"/>
+      <c r="W159" s="103"/>
+      <c r="X159" s="103"/>
+      <c r="Y159" s="106"/>
+      <c r="Z159" s="103"/>
+      <c r="AA159" s="103"/>
+      <c r="AB159" s="103"/>
+      <c r="AC159" s="103"/>
+      <c r="AD159" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="AE159" s="102"/>
-      <c r="AF159" s="102"/>
-      <c r="AG159" s="102"/>
-      <c r="AH159" s="102"/>
-      <c r="AI159" s="102"/>
+      <c r="AE159" s="103"/>
+      <c r="AF159" s="103"/>
+      <c r="AG159" s="103"/>
+      <c r="AH159" s="103"/>
+      <c r="AI159" s="103"/>
       <c r="AJ159" s="33" t="n">
         <v>158</v>
       </c>
-      <c r="AK159" s="107" t="s">
+      <c r="AK159" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="AL159" s="102"/>
-      <c r="AM159" s="102"/>
-      <c r="AN159" s="102"/>
-      <c r="AO159" s="102"/>
+      <c r="AL159" s="103"/>
+      <c r="AM159" s="103"/>
+      <c r="AN159" s="103"/>
+      <c r="AO159" s="103"/>
     </row>
     <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15" t="n">
@@ -15608,62 +15620,62 @@
       <c r="C160" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D160" s="99" t="s">
-        <v>452</v>
+      <c r="D160" s="100" t="s">
+        <v>453</v>
       </c>
       <c r="E160" s="82" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F160" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="G160" s="108" t="s">
+        <v>477</v>
+      </c>
+      <c r="G160" s="109" t="s">
         <v>278</v>
       </c>
-      <c r="H160" s="104" t="s">
-        <v>477</v>
-      </c>
-      <c r="I160" s="103" t="s">
-        <v>465</v>
-      </c>
-      <c r="J160" s="102"/>
-      <c r="K160" s="104"/>
-      <c r="L160" s="104"/>
-      <c r="M160" s="102"/>
-      <c r="N160" s="102"/>
-      <c r="O160" s="102"/>
-      <c r="P160" s="102"/>
-      <c r="Q160" s="102"/>
-      <c r="R160" s="102"/>
-      <c r="S160" s="102"/>
-      <c r="T160" s="102"/>
-      <c r="U160" s="102"/>
-      <c r="V160" s="102"/>
-      <c r="W160" s="102"/>
-      <c r="X160" s="102"/>
-      <c r="Y160" s="105"/>
-      <c r="Z160" s="102"/>
-      <c r="AA160" s="102"/>
-      <c r="AB160" s="102"/>
-      <c r="AC160" s="102"/>
-      <c r="AD160" s="102" t="n">
+      <c r="H160" s="105" t="s">
+        <v>478</v>
+      </c>
+      <c r="I160" s="104" t="s">
+        <v>466</v>
+      </c>
+      <c r="J160" s="103"/>
+      <c r="K160" s="105"/>
+      <c r="L160" s="105"/>
+      <c r="M160" s="103"/>
+      <c r="N160" s="103"/>
+      <c r="O160" s="103"/>
+      <c r="P160" s="103"/>
+      <c r="Q160" s="103"/>
+      <c r="R160" s="103"/>
+      <c r="S160" s="103"/>
+      <c r="T160" s="103"/>
+      <c r="U160" s="103"/>
+      <c r="V160" s="103"/>
+      <c r="W160" s="103"/>
+      <c r="X160" s="103"/>
+      <c r="Y160" s="106"/>
+      <c r="Z160" s="103"/>
+      <c r="AA160" s="103"/>
+      <c r="AB160" s="103"/>
+      <c r="AC160" s="103"/>
+      <c r="AD160" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="AE160" s="102"/>
-      <c r="AF160" s="102"/>
-      <c r="AG160" s="102"/>
-      <c r="AH160" s="102"/>
-      <c r="AI160" s="102"/>
+      <c r="AE160" s="103"/>
+      <c r="AF160" s="103"/>
+      <c r="AG160" s="103"/>
+      <c r="AH160" s="103"/>
+      <c r="AI160" s="103"/>
       <c r="AJ160" s="21" t="n">
         <v>159</v>
       </c>
-      <c r="AK160" s="107" t="s">
+      <c r="AK160" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="AL160" s="102"/>
-      <c r="AM160" s="102"/>
-      <c r="AN160" s="102"/>
-      <c r="AO160" s="102"/>
+      <c r="AL160" s="103"/>
+      <c r="AM160" s="103"/>
+      <c r="AN160" s="103"/>
+      <c r="AO160" s="103"/>
     </row>
     <row r="161" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="25" t="n">
@@ -15675,62 +15687,62 @@
       <c r="C161" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D161" s="99" t="s">
-        <v>452</v>
+      <c r="D161" s="100" t="s">
+        <v>453</v>
       </c>
       <c r="E161" s="82" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F161" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="G161" s="108" t="s">
+        <v>477</v>
+      </c>
+      <c r="G161" s="109" t="s">
         <v>306</v>
       </c>
-      <c r="H161" s="104" t="s">
-        <v>478</v>
-      </c>
-      <c r="I161" s="103" t="s">
-        <v>465</v>
-      </c>
-      <c r="J161" s="102"/>
-      <c r="K161" s="104"/>
-      <c r="L161" s="104"/>
-      <c r="M161" s="102"/>
-      <c r="N161" s="102"/>
-      <c r="O161" s="102"/>
-      <c r="P161" s="102"/>
-      <c r="Q161" s="102"/>
-      <c r="R161" s="102"/>
-      <c r="S161" s="102"/>
-      <c r="T161" s="102"/>
-      <c r="U161" s="102"/>
-      <c r="V161" s="102"/>
-      <c r="W161" s="102"/>
-      <c r="X161" s="102"/>
-      <c r="Y161" s="105"/>
-      <c r="Z161" s="102"/>
-      <c r="AA161" s="102"/>
-      <c r="AB161" s="102"/>
-      <c r="AC161" s="102"/>
-      <c r="AD161" s="102" t="n">
+      <c r="H161" s="105" t="s">
+        <v>479</v>
+      </c>
+      <c r="I161" s="104" t="s">
+        <v>466</v>
+      </c>
+      <c r="J161" s="103"/>
+      <c r="K161" s="105"/>
+      <c r="L161" s="105"/>
+      <c r="M161" s="103"/>
+      <c r="N161" s="103"/>
+      <c r="O161" s="103"/>
+      <c r="P161" s="103"/>
+      <c r="Q161" s="103"/>
+      <c r="R161" s="103"/>
+      <c r="S161" s="103"/>
+      <c r="T161" s="103"/>
+      <c r="U161" s="103"/>
+      <c r="V161" s="103"/>
+      <c r="W161" s="103"/>
+      <c r="X161" s="103"/>
+      <c r="Y161" s="106"/>
+      <c r="Z161" s="103"/>
+      <c r="AA161" s="103"/>
+      <c r="AB161" s="103"/>
+      <c r="AC161" s="103"/>
+      <c r="AD161" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="AE161" s="102"/>
-      <c r="AF161" s="102"/>
-      <c r="AG161" s="102"/>
-      <c r="AH161" s="102"/>
-      <c r="AI161" s="102"/>
+      <c r="AE161" s="103"/>
+      <c r="AF161" s="103"/>
+      <c r="AG161" s="103"/>
+      <c r="AH161" s="103"/>
+      <c r="AI161" s="103"/>
       <c r="AJ161" s="33" t="n">
         <v>160</v>
       </c>
-      <c r="AK161" s="107" t="s">
+      <c r="AK161" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="AL161" s="102"/>
-      <c r="AM161" s="102"/>
-      <c r="AN161" s="102"/>
-      <c r="AO161" s="102"/>
+      <c r="AL161" s="103"/>
+      <c r="AM161" s="103"/>
+      <c r="AN161" s="103"/>
+      <c r="AO161" s="103"/>
     </row>
     <row r="162" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="15" t="n">
@@ -15742,62 +15754,62 @@
       <c r="C162" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D162" s="99" t="s">
-        <v>452</v>
+      <c r="D162" s="100" t="s">
+        <v>453</v>
       </c>
       <c r="E162" s="82" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F162" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="G162" s="108" t="s">
+        <v>477</v>
+      </c>
+      <c r="G162" s="109" t="s">
         <v>328</v>
       </c>
-      <c r="H162" s="104" t="s">
-        <v>479</v>
-      </c>
-      <c r="I162" s="103" t="s">
-        <v>465</v>
-      </c>
-      <c r="J162" s="102"/>
-      <c r="K162" s="104"/>
-      <c r="L162" s="104"/>
-      <c r="M162" s="102"/>
-      <c r="N162" s="102"/>
-      <c r="O162" s="102"/>
-      <c r="P162" s="102"/>
-      <c r="Q162" s="102"/>
-      <c r="R162" s="102"/>
-      <c r="S162" s="102"/>
-      <c r="T162" s="102"/>
-      <c r="U162" s="102"/>
-      <c r="V162" s="102"/>
-      <c r="W162" s="102"/>
-      <c r="X162" s="102"/>
-      <c r="Y162" s="105"/>
-      <c r="Z162" s="102"/>
-      <c r="AA162" s="102"/>
-      <c r="AB162" s="102"/>
-      <c r="AC162" s="102"/>
-      <c r="AD162" s="102" t="n">
+      <c r="H162" s="105" t="s">
+        <v>480</v>
+      </c>
+      <c r="I162" s="104" t="s">
+        <v>466</v>
+      </c>
+      <c r="J162" s="103"/>
+      <c r="K162" s="105"/>
+      <c r="L162" s="105"/>
+      <c r="M162" s="103"/>
+      <c r="N162" s="103"/>
+      <c r="O162" s="103"/>
+      <c r="P162" s="103"/>
+      <c r="Q162" s="103"/>
+      <c r="R162" s="103"/>
+      <c r="S162" s="103"/>
+      <c r="T162" s="103"/>
+      <c r="U162" s="103"/>
+      <c r="V162" s="103"/>
+      <c r="W162" s="103"/>
+      <c r="X162" s="103"/>
+      <c r="Y162" s="106"/>
+      <c r="Z162" s="103"/>
+      <c r="AA162" s="103"/>
+      <c r="AB162" s="103"/>
+      <c r="AC162" s="103"/>
+      <c r="AD162" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="AE162" s="102"/>
-      <c r="AF162" s="102"/>
-      <c r="AG162" s="102"/>
-      <c r="AH162" s="102"/>
-      <c r="AI162" s="102"/>
+      <c r="AE162" s="103"/>
+      <c r="AF162" s="103"/>
+      <c r="AG162" s="103"/>
+      <c r="AH162" s="103"/>
+      <c r="AI162" s="103"/>
       <c r="AJ162" s="21" t="n">
         <v>161</v>
       </c>
-      <c r="AK162" s="107" t="s">
+      <c r="AK162" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="AL162" s="102"/>
-      <c r="AM162" s="102"/>
-      <c r="AN162" s="102"/>
-      <c r="AO162" s="102"/>
+      <c r="AL162" s="103"/>
+      <c r="AM162" s="103"/>
+      <c r="AN162" s="103"/>
+      <c r="AO162" s="103"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AO162"/>
@@ -15820,17 +15832,17 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC126:AF126 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="110" t="s">
-        <v>442</v>
+      <c r="A1" s="111" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15857,58 +15869,58 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC126:AF126 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="112" t="s">
-        <v>480</v>
-      </c>
-      <c r="H1" s="112" t="s">
+      <c r="G1" s="113" t="s">
         <v>481</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="H1" s="113" t="s">
+        <v>482</v>
+      </c>
+      <c r="I1" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="112" t="s">
-        <v>482</v>
-      </c>
-      <c r="L1" s="112" t="s">
+      <c r="K1" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="L1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="113" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="113" t="s">
-        <v>483</v>
+      <c r="B4" s="114" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/Convenience Small PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Convenience Small PoS 2018.xlsx
@@ -35,6 +35,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AO$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AO$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AO$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AO$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1452,7 +1453,7 @@
     <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
   </si>
   <si>
-    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+    <t xml:space="preserve">number of scenes with have at least target amount of facings</t>
   </si>
   <si>
     <t xml:space="preserve">COUNT</t>
@@ -1834,7 +1835,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2203,10 +2204,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2215,7 +2212,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2379,25 +2376,25 @@
   </sheetPr>
   <dimension ref="A1:AO162"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AC126" activeCellId="0" sqref="AC126:AF126"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J146" activeCellId="0" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.663967611336"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="20.1943319838057"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.587044534413"/>
-    <col collapsed="false" hidden="false" max="21" min="14" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="20.6882591093117"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.0728744939271"/>
+    <col collapsed="false" hidden="false" max="21" min="14" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12962,7 +12959,7 @@
       <c r="AC126" s="74" t="s">
         <v>388</v>
       </c>
-      <c r="AD126" s="92" t="n">
+      <c r="AD126" s="52" t="n">
         <v>0.0225</v>
       </c>
       <c r="AE126" s="74" t="n">
@@ -14479,7 +14476,7 @@
       <c r="D144" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="E144" s="93" t="s">
+      <c r="E144" s="92" t="s">
         <v>207</v>
       </c>
       <c r="F144" s="47" t="s">
@@ -14513,7 +14510,7 @@
       </c>
       <c r="W144" s="48"/>
       <c r="X144" s="48"/>
-      <c r="Y144" s="94"/>
+      <c r="Y144" s="93"/>
       <c r="Z144" s="48"/>
       <c r="AA144" s="48"/>
       <c r="AB144" s="50" t="s">
@@ -14545,7 +14542,7 @@
       </c>
       <c r="AO144" s="12"/>
     </row>
-    <row r="145" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="92.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="25" t="n">
         <v>144</v>
       </c>
@@ -14558,7 +14555,7 @@
       <c r="D145" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="E145" s="93" t="s">
+      <c r="E145" s="92" t="s">
         <v>207</v>
       </c>
       <c r="F145" s="47" t="s">
@@ -14567,15 +14564,13 @@
       <c r="G145" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="H145" s="95" t="s">
+      <c r="H145" s="94" t="s">
         <v>435</v>
       </c>
       <c r="I145" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" s="48" t="n">
         <v>8</v>
       </c>
+      <c r="J145" s="48"/>
       <c r="K145" s="48"/>
       <c r="L145" s="48" t="s">
         <v>201</v>
@@ -14600,7 +14595,7 @@
       </c>
       <c r="W145" s="48"/>
       <c r="X145" s="48"/>
-      <c r="Y145" s="94"/>
+      <c r="Y145" s="93"/>
       <c r="Z145" s="48"/>
       <c r="AA145" s="48"/>
       <c r="AB145" s="50" t="s">
@@ -14625,7 +14620,7 @@
       </c>
       <c r="AL145" s="12"/>
       <c r="AM145" s="12"/>
-      <c r="AN145" s="96" t="s">
+      <c r="AN145" s="95" t="s">
         <v>429</v>
       </c>
       <c r="AO145" s="12"/>
@@ -14677,7 +14672,7 @@
       <c r="V146" s="48"/>
       <c r="W146" s="48"/>
       <c r="X146" s="48"/>
-      <c r="Y146" s="94"/>
+      <c r="Y146" s="93"/>
       <c r="Z146" s="48"/>
       <c r="AA146" s="48"/>
       <c r="AB146" s="50" t="s">
@@ -14704,7 +14699,7 @@
         <v>439</v>
       </c>
       <c r="AM146" s="12"/>
-      <c r="AN146" s="97" t="s">
+      <c r="AN146" s="96" t="s">
         <v>440</v>
       </c>
       <c r="AO146" s="12"/>
@@ -14754,11 +14749,11 @@
       <c r="T147" s="48"/>
       <c r="U147" s="48"/>
       <c r="V147" s="48"/>
-      <c r="W147" s="98" t="s">
+      <c r="W147" s="97" t="s">
         <v>443</v>
       </c>
       <c r="X147" s="48"/>
-      <c r="Y147" s="99"/>
+      <c r="Y147" s="98"/>
       <c r="Z147" s="48"/>
       <c r="AA147" s="48"/>
       <c r="AB147" s="50" t="s">
@@ -14833,11 +14828,11 @@
       <c r="T148" s="48"/>
       <c r="U148" s="48"/>
       <c r="V148" s="48"/>
-      <c r="W148" s="98" t="s">
+      <c r="W148" s="97" t="s">
         <v>446</v>
       </c>
       <c r="X148" s="48"/>
-      <c r="Y148" s="99"/>
+      <c r="Y148" s="98"/>
       <c r="Z148" s="48"/>
       <c r="AA148" s="48"/>
       <c r="AB148" s="50" t="s">
@@ -14912,11 +14907,11 @@
       <c r="T149" s="48"/>
       <c r="U149" s="48"/>
       <c r="V149" s="48"/>
-      <c r="W149" s="98" t="s">
+      <c r="W149" s="97" t="s">
         <v>449</v>
       </c>
       <c r="X149" s="48"/>
-      <c r="Y149" s="99"/>
+      <c r="Y149" s="98"/>
       <c r="Z149" s="48"/>
       <c r="AA149" s="48"/>
       <c r="AB149" s="50" t="s">
@@ -14991,11 +14986,11 @@
       <c r="T150" s="48"/>
       <c r="U150" s="48"/>
       <c r="V150" s="48"/>
-      <c r="W150" s="98" t="s">
+      <c r="W150" s="97" t="s">
         <v>452</v>
       </c>
       <c r="X150" s="48"/>
-      <c r="Y150" s="99"/>
+      <c r="Y150" s="98"/>
       <c r="Z150" s="48"/>
       <c r="AA150" s="48"/>
       <c r="AB150" s="50" t="s">
@@ -15035,60 +15030,60 @@
       <c r="C151" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D151" s="100" t="s">
+      <c r="D151" s="99" t="s">
         <v>453</v>
       </c>
-      <c r="E151" s="101" t="s">
+      <c r="E151" s="100" t="s">
         <v>454</v>
       </c>
-      <c r="F151" s="102" t="s">
+      <c r="F151" s="101" t="s">
         <v>214</v>
       </c>
-      <c r="G151" s="102"/>
-      <c r="H151" s="103" t="s">
+      <c r="G151" s="101"/>
+      <c r="H151" s="102" t="s">
         <v>455</v>
       </c>
-      <c r="I151" s="104" t="s">
+      <c r="I151" s="103" t="s">
         <v>456</v>
       </c>
-      <c r="J151" s="103"/>
-      <c r="K151" s="105"/>
-      <c r="L151" s="105"/>
-      <c r="M151" s="103"/>
-      <c r="N151" s="103"/>
-      <c r="O151" s="103"/>
-      <c r="P151" s="103"/>
-      <c r="Q151" s="103"/>
-      <c r="R151" s="103"/>
-      <c r="S151" s="103"/>
-      <c r="T151" s="103"/>
-      <c r="U151" s="103"/>
-      <c r="V151" s="103"/>
-      <c r="W151" s="103"/>
-      <c r="X151" s="103"/>
-      <c r="Y151" s="106"/>
-      <c r="Z151" s="103"/>
-      <c r="AA151" s="103"/>
-      <c r="AB151" s="103"/>
-      <c r="AC151" s="103"/>
-      <c r="AD151" s="107" t="n">
+      <c r="J151" s="102"/>
+      <c r="K151" s="104"/>
+      <c r="L151" s="104"/>
+      <c r="M151" s="102"/>
+      <c r="N151" s="102"/>
+      <c r="O151" s="102"/>
+      <c r="P151" s="102"/>
+      <c r="Q151" s="102"/>
+      <c r="R151" s="102"/>
+      <c r="S151" s="102"/>
+      <c r="T151" s="102"/>
+      <c r="U151" s="102"/>
+      <c r="V151" s="102"/>
+      <c r="W151" s="102"/>
+      <c r="X151" s="102"/>
+      <c r="Y151" s="105"/>
+      <c r="Z151" s="102"/>
+      <c r="AA151" s="102"/>
+      <c r="AB151" s="102"/>
+      <c r="AC151" s="102"/>
+      <c r="AD151" s="106" t="n">
         <v>0</v>
       </c>
-      <c r="AE151" s="103"/>
-      <c r="AF151" s="103"/>
-      <c r="AG151" s="103"/>
-      <c r="AH151" s="103"/>
-      <c r="AI151" s="103"/>
+      <c r="AE151" s="102"/>
+      <c r="AF151" s="102"/>
+      <c r="AG151" s="102"/>
+      <c r="AH151" s="102"/>
+      <c r="AI151" s="102"/>
       <c r="AJ151" s="33" t="n">
         <v>150</v>
       </c>
-      <c r="AK151" s="108" t="s">
+      <c r="AK151" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="AL151" s="103"/>
-      <c r="AM151" s="103"/>
-      <c r="AN151" s="103"/>
-      <c r="AO151" s="103"/>
+      <c r="AL151" s="102"/>
+      <c r="AM151" s="102"/>
+      <c r="AN151" s="102"/>
+      <c r="AO151" s="102"/>
     </row>
     <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="15" t="n">
@@ -15100,60 +15095,60 @@
       <c r="C152" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D152" s="100" t="s">
+      <c r="D152" s="99" t="s">
         <v>453</v>
       </c>
       <c r="E152" s="82" t="s">
         <v>457</v>
       </c>
-      <c r="F152" s="97" t="s">
+      <c r="F152" s="96" t="s">
         <v>440</v>
       </c>
-      <c r="G152" s="109"/>
-      <c r="H152" s="103" t="s">
+      <c r="G152" s="108"/>
+      <c r="H152" s="102" t="s">
         <v>458</v>
       </c>
-      <c r="I152" s="104" t="s">
+      <c r="I152" s="103" t="s">
         <v>456</v>
       </c>
-      <c r="J152" s="103"/>
-      <c r="K152" s="105"/>
-      <c r="L152" s="105"/>
-      <c r="M152" s="103"/>
-      <c r="N152" s="103"/>
-      <c r="O152" s="103"/>
-      <c r="P152" s="103"/>
-      <c r="Q152" s="103"/>
-      <c r="R152" s="103"/>
-      <c r="S152" s="103"/>
-      <c r="T152" s="103"/>
-      <c r="U152" s="103"/>
-      <c r="V152" s="103"/>
-      <c r="W152" s="103"/>
-      <c r="X152" s="103"/>
-      <c r="Y152" s="106"/>
-      <c r="Z152" s="103"/>
-      <c r="AA152" s="103"/>
-      <c r="AB152" s="103"/>
-      <c r="AC152" s="103"/>
-      <c r="AD152" s="110" t="n">
+      <c r="J152" s="102"/>
+      <c r="K152" s="104"/>
+      <c r="L152" s="104"/>
+      <c r="M152" s="102"/>
+      <c r="N152" s="102"/>
+      <c r="O152" s="102"/>
+      <c r="P152" s="102"/>
+      <c r="Q152" s="102"/>
+      <c r="R152" s="102"/>
+      <c r="S152" s="102"/>
+      <c r="T152" s="102"/>
+      <c r="U152" s="102"/>
+      <c r="V152" s="102"/>
+      <c r="W152" s="102"/>
+      <c r="X152" s="102"/>
+      <c r="Y152" s="105"/>
+      <c r="Z152" s="102"/>
+      <c r="AA152" s="102"/>
+      <c r="AB152" s="102"/>
+      <c r="AC152" s="102"/>
+      <c r="AD152" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="AE152" s="103"/>
-      <c r="AF152" s="103"/>
-      <c r="AG152" s="103"/>
-      <c r="AH152" s="103"/>
-      <c r="AI152" s="103"/>
+      <c r="AE152" s="102"/>
+      <c r="AF152" s="102"/>
+      <c r="AG152" s="102"/>
+      <c r="AH152" s="102"/>
+      <c r="AI152" s="102"/>
       <c r="AJ152" s="21" t="n">
         <v>151</v>
       </c>
-      <c r="AK152" s="108" t="s">
+      <c r="AK152" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="AL152" s="103"/>
-      <c r="AM152" s="103"/>
-      <c r="AN152" s="103"/>
-      <c r="AO152" s="103"/>
+      <c r="AL152" s="102"/>
+      <c r="AM152" s="102"/>
+      <c r="AN152" s="102"/>
+      <c r="AO152" s="102"/>
     </row>
     <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="25" t="n">
@@ -15165,7 +15160,7 @@
       <c r="C153" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D153" s="100" t="s">
+      <c r="D153" s="99" t="s">
         <v>453</v>
       </c>
       <c r="E153" s="82" t="s">
@@ -15174,51 +15169,51 @@
       <c r="F153" s="82" t="s">
         <v>382</v>
       </c>
-      <c r="G153" s="109"/>
-      <c r="H153" s="103" t="s">
+      <c r="G153" s="108"/>
+      <c r="H153" s="102" t="s">
         <v>460</v>
       </c>
-      <c r="I153" s="104" t="s">
+      <c r="I153" s="103" t="s">
         <v>456</v>
       </c>
-      <c r="J153" s="103"/>
-      <c r="K153" s="105"/>
-      <c r="L153" s="105"/>
-      <c r="M153" s="103"/>
-      <c r="N153" s="103"/>
-      <c r="O153" s="103"/>
-      <c r="P153" s="103"/>
-      <c r="Q153" s="103"/>
-      <c r="R153" s="103"/>
-      <c r="S153" s="103"/>
-      <c r="T153" s="103"/>
-      <c r="U153" s="103"/>
-      <c r="V153" s="103"/>
-      <c r="W153" s="103"/>
-      <c r="X153" s="103"/>
-      <c r="Y153" s="106"/>
-      <c r="Z153" s="103"/>
-      <c r="AA153" s="103"/>
-      <c r="AB153" s="103"/>
-      <c r="AC153" s="103"/>
-      <c r="AD153" s="107" t="n">
+      <c r="J153" s="102"/>
+      <c r="K153" s="104"/>
+      <c r="L153" s="104"/>
+      <c r="M153" s="102"/>
+      <c r="N153" s="102"/>
+      <c r="O153" s="102"/>
+      <c r="P153" s="102"/>
+      <c r="Q153" s="102"/>
+      <c r="R153" s="102"/>
+      <c r="S153" s="102"/>
+      <c r="T153" s="102"/>
+      <c r="U153" s="102"/>
+      <c r="V153" s="102"/>
+      <c r="W153" s="102"/>
+      <c r="X153" s="102"/>
+      <c r="Y153" s="105"/>
+      <c r="Z153" s="102"/>
+      <c r="AA153" s="102"/>
+      <c r="AB153" s="102"/>
+      <c r="AC153" s="102"/>
+      <c r="AD153" s="106" t="n">
         <v>0</v>
       </c>
-      <c r="AE153" s="103"/>
-      <c r="AF153" s="103"/>
-      <c r="AG153" s="103"/>
-      <c r="AH153" s="103"/>
-      <c r="AI153" s="103"/>
+      <c r="AE153" s="102"/>
+      <c r="AF153" s="102"/>
+      <c r="AG153" s="102"/>
+      <c r="AH153" s="102"/>
+      <c r="AI153" s="102"/>
       <c r="AJ153" s="33" t="n">
         <v>152</v>
       </c>
-      <c r="AK153" s="108" t="s">
+      <c r="AK153" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="AL153" s="103"/>
-      <c r="AM153" s="103"/>
-      <c r="AN153" s="103"/>
-      <c r="AO153" s="103"/>
+      <c r="AL153" s="102"/>
+      <c r="AM153" s="102"/>
+      <c r="AN153" s="102"/>
+      <c r="AO153" s="102"/>
     </row>
     <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="n">
@@ -15230,7 +15225,7 @@
       <c r="C154" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D154" s="100" t="s">
+      <c r="D154" s="99" t="s">
         <v>453</v>
       </c>
       <c r="E154" s="82" t="s">
@@ -15239,51 +15234,51 @@
       <c r="F154" s="82" t="s">
         <v>432</v>
       </c>
-      <c r="G154" s="109"/>
-      <c r="H154" s="103" t="s">
+      <c r="G154" s="108"/>
+      <c r="H154" s="102" t="s">
         <v>458</v>
       </c>
-      <c r="I154" s="104" t="s">
+      <c r="I154" s="103" t="s">
         <v>456</v>
       </c>
-      <c r="J154" s="103"/>
-      <c r="K154" s="105"/>
-      <c r="L154" s="105"/>
-      <c r="M154" s="103"/>
-      <c r="N154" s="103"/>
-      <c r="O154" s="103"/>
-      <c r="P154" s="103"/>
-      <c r="Q154" s="103"/>
-      <c r="R154" s="103"/>
-      <c r="S154" s="103"/>
-      <c r="T154" s="103"/>
-      <c r="U154" s="103"/>
-      <c r="V154" s="103"/>
-      <c r="W154" s="103"/>
-      <c r="X154" s="103"/>
-      <c r="Y154" s="106"/>
-      <c r="Z154" s="103"/>
-      <c r="AA154" s="103"/>
-      <c r="AB154" s="103"/>
-      <c r="AC154" s="103"/>
-      <c r="AD154" s="107" t="n">
+      <c r="J154" s="102"/>
+      <c r="K154" s="104"/>
+      <c r="L154" s="104"/>
+      <c r="M154" s="102"/>
+      <c r="N154" s="102"/>
+      <c r="O154" s="102"/>
+      <c r="P154" s="102"/>
+      <c r="Q154" s="102"/>
+      <c r="R154" s="102"/>
+      <c r="S154" s="102"/>
+      <c r="T154" s="102"/>
+      <c r="U154" s="102"/>
+      <c r="V154" s="102"/>
+      <c r="W154" s="102"/>
+      <c r="X154" s="102"/>
+      <c r="Y154" s="105"/>
+      <c r="Z154" s="102"/>
+      <c r="AA154" s="102"/>
+      <c r="AB154" s="102"/>
+      <c r="AC154" s="102"/>
+      <c r="AD154" s="106" t="n">
         <v>0</v>
       </c>
-      <c r="AE154" s="103"/>
-      <c r="AF154" s="103"/>
-      <c r="AG154" s="103"/>
-      <c r="AH154" s="103"/>
-      <c r="AI154" s="103"/>
+      <c r="AE154" s="102"/>
+      <c r="AF154" s="102"/>
+      <c r="AG154" s="102"/>
+      <c r="AH154" s="102"/>
+      <c r="AI154" s="102"/>
       <c r="AJ154" s="21" t="n">
         <v>153</v>
       </c>
-      <c r="AK154" s="108" t="s">
+      <c r="AK154" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="AL154" s="103"/>
-      <c r="AM154" s="103"/>
-      <c r="AN154" s="103"/>
-      <c r="AO154" s="103"/>
+      <c r="AL154" s="102"/>
+      <c r="AM154" s="102"/>
+      <c r="AN154" s="102"/>
+      <c r="AO154" s="102"/>
     </row>
     <row r="155" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="25" t="n">
@@ -15295,7 +15290,7 @@
       <c r="C155" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D155" s="100" t="s">
+      <c r="D155" s="99" t="s">
         <v>453</v>
       </c>
       <c r="E155" s="82" t="s">
@@ -15304,51 +15299,51 @@
       <c r="F155" s="82" t="s">
         <v>299</v>
       </c>
-      <c r="G155" s="109"/>
-      <c r="H155" s="105" t="s">
+      <c r="G155" s="108"/>
+      <c r="H155" s="104" t="s">
         <v>455</v>
       </c>
-      <c r="I155" s="104" t="s">
+      <c r="I155" s="103" t="s">
         <v>456</v>
       </c>
-      <c r="J155" s="103"/>
-      <c r="K155" s="105"/>
-      <c r="L155" s="105"/>
-      <c r="M155" s="103"/>
-      <c r="N155" s="103"/>
-      <c r="O155" s="103"/>
-      <c r="P155" s="103"/>
-      <c r="Q155" s="103"/>
-      <c r="R155" s="103"/>
-      <c r="S155" s="103"/>
-      <c r="T155" s="103"/>
-      <c r="U155" s="103"/>
-      <c r="V155" s="103"/>
-      <c r="W155" s="103"/>
-      <c r="X155" s="103"/>
-      <c r="Y155" s="106"/>
-      <c r="Z155" s="103"/>
-      <c r="AA155" s="103"/>
-      <c r="AB155" s="103"/>
-      <c r="AC155" s="103"/>
-      <c r="AD155" s="107" t="n">
+      <c r="J155" s="102"/>
+      <c r="K155" s="104"/>
+      <c r="L155" s="104"/>
+      <c r="M155" s="102"/>
+      <c r="N155" s="102"/>
+      <c r="O155" s="102"/>
+      <c r="P155" s="102"/>
+      <c r="Q155" s="102"/>
+      <c r="R155" s="102"/>
+      <c r="S155" s="102"/>
+      <c r="T155" s="102"/>
+      <c r="U155" s="102"/>
+      <c r="V155" s="102"/>
+      <c r="W155" s="102"/>
+      <c r="X155" s="102"/>
+      <c r="Y155" s="105"/>
+      <c r="Z155" s="102"/>
+      <c r="AA155" s="102"/>
+      <c r="AB155" s="102"/>
+      <c r="AC155" s="102"/>
+      <c r="AD155" s="106" t="n">
         <v>0</v>
       </c>
-      <c r="AE155" s="103"/>
-      <c r="AF155" s="103"/>
-      <c r="AG155" s="103"/>
-      <c r="AH155" s="103"/>
-      <c r="AI155" s="103"/>
+      <c r="AE155" s="102"/>
+      <c r="AF155" s="102"/>
+      <c r="AG155" s="102"/>
+      <c r="AH155" s="102"/>
+      <c r="AI155" s="102"/>
       <c r="AJ155" s="33" t="n">
         <v>154</v>
       </c>
-      <c r="AK155" s="108" t="s">
+      <c r="AK155" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="AL155" s="103"/>
-      <c r="AM155" s="103"/>
-      <c r="AN155" s="103"/>
-      <c r="AO155" s="103"/>
+      <c r="AL155" s="102"/>
+      <c r="AM155" s="102"/>
+      <c r="AN155" s="102"/>
+      <c r="AO155" s="102"/>
     </row>
     <row r="156" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="15" t="n">
@@ -15360,7 +15355,7 @@
       <c r="C156" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D156" s="100" t="s">
+      <c r="D156" s="99" t="s">
         <v>453</v>
       </c>
       <c r="E156" s="82" t="s">
@@ -15369,51 +15364,51 @@
       <c r="F156" s="82" t="s">
         <v>464</v>
       </c>
-      <c r="G156" s="109"/>
-      <c r="H156" s="105" t="s">
+      <c r="G156" s="108"/>
+      <c r="H156" s="104" t="s">
         <v>465</v>
       </c>
-      <c r="I156" s="104" t="s">
+      <c r="I156" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="J156" s="103"/>
-      <c r="K156" s="105"/>
-      <c r="L156" s="105"/>
-      <c r="M156" s="103"/>
-      <c r="N156" s="103"/>
-      <c r="O156" s="103"/>
-      <c r="P156" s="103"/>
-      <c r="Q156" s="103"/>
-      <c r="R156" s="103"/>
-      <c r="S156" s="103"/>
-      <c r="T156" s="103"/>
-      <c r="U156" s="103"/>
-      <c r="V156" s="103"/>
-      <c r="W156" s="103"/>
-      <c r="X156" s="103"/>
-      <c r="Y156" s="106"/>
-      <c r="Z156" s="103"/>
-      <c r="AA156" s="103"/>
-      <c r="AB156" s="103"/>
-      <c r="AC156" s="103"/>
-      <c r="AD156" s="103" t="n">
+      <c r="J156" s="102"/>
+      <c r="K156" s="104"/>
+      <c r="L156" s="104"/>
+      <c r="M156" s="102"/>
+      <c r="N156" s="102"/>
+      <c r="O156" s="102"/>
+      <c r="P156" s="102"/>
+      <c r="Q156" s="102"/>
+      <c r="R156" s="102"/>
+      <c r="S156" s="102"/>
+      <c r="T156" s="102"/>
+      <c r="U156" s="102"/>
+      <c r="V156" s="102"/>
+      <c r="W156" s="102"/>
+      <c r="X156" s="102"/>
+      <c r="Y156" s="105"/>
+      <c r="Z156" s="102"/>
+      <c r="AA156" s="102"/>
+      <c r="AB156" s="102"/>
+      <c r="AC156" s="102"/>
+      <c r="AD156" s="102" t="n">
         <v>0</v>
       </c>
-      <c r="AE156" s="103"/>
-      <c r="AF156" s="103"/>
-      <c r="AG156" s="103"/>
-      <c r="AH156" s="103"/>
-      <c r="AI156" s="103"/>
+      <c r="AE156" s="102"/>
+      <c r="AF156" s="102"/>
+      <c r="AG156" s="102"/>
+      <c r="AH156" s="102"/>
+      <c r="AI156" s="102"/>
       <c r="AJ156" s="21" t="n">
         <v>155</v>
       </c>
-      <c r="AK156" s="108" t="s">
+      <c r="AK156" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="AL156" s="103"/>
-      <c r="AM156" s="103"/>
-      <c r="AN156" s="103"/>
-      <c r="AO156" s="103"/>
+      <c r="AL156" s="102"/>
+      <c r="AM156" s="102"/>
+      <c r="AN156" s="102"/>
+      <c r="AO156" s="102"/>
     </row>
     <row r="157" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="25" t="n">
@@ -15425,7 +15420,7 @@
       <c r="C157" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D157" s="100" t="s">
+      <c r="D157" s="99" t="s">
         <v>453</v>
       </c>
       <c r="E157" s="82" t="s">
@@ -15434,51 +15429,51 @@
       <c r="F157" s="82" t="s">
         <v>468</v>
       </c>
-      <c r="G157" s="109"/>
-      <c r="H157" s="105" t="s">
+      <c r="G157" s="108"/>
+      <c r="H157" s="104" t="s">
         <v>469</v>
       </c>
-      <c r="I157" s="104" t="s">
+      <c r="I157" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="J157" s="103"/>
-      <c r="K157" s="105"/>
-      <c r="L157" s="105"/>
-      <c r="M157" s="103"/>
-      <c r="N157" s="103"/>
-      <c r="O157" s="103"/>
-      <c r="P157" s="103"/>
-      <c r="Q157" s="103"/>
-      <c r="R157" s="103"/>
-      <c r="S157" s="103"/>
-      <c r="T157" s="103"/>
-      <c r="U157" s="103"/>
-      <c r="V157" s="103"/>
-      <c r="W157" s="103"/>
-      <c r="X157" s="103"/>
-      <c r="Y157" s="106"/>
-      <c r="Z157" s="103"/>
-      <c r="AA157" s="103"/>
-      <c r="AB157" s="103"/>
-      <c r="AC157" s="103"/>
-      <c r="AD157" s="103" t="n">
+      <c r="J157" s="102"/>
+      <c r="K157" s="104"/>
+      <c r="L157" s="104"/>
+      <c r="M157" s="102"/>
+      <c r="N157" s="102"/>
+      <c r="O157" s="102"/>
+      <c r="P157" s="102"/>
+      <c r="Q157" s="102"/>
+      <c r="R157" s="102"/>
+      <c r="S157" s="102"/>
+      <c r="T157" s="102"/>
+      <c r="U157" s="102"/>
+      <c r="V157" s="102"/>
+      <c r="W157" s="102"/>
+      <c r="X157" s="102"/>
+      <c r="Y157" s="105"/>
+      <c r="Z157" s="102"/>
+      <c r="AA157" s="102"/>
+      <c r="AB157" s="102"/>
+      <c r="AC157" s="102"/>
+      <c r="AD157" s="102" t="n">
         <v>0</v>
       </c>
-      <c r="AE157" s="103"/>
-      <c r="AF157" s="103"/>
-      <c r="AG157" s="103"/>
-      <c r="AH157" s="103"/>
-      <c r="AI157" s="103"/>
+      <c r="AE157" s="102"/>
+      <c r="AF157" s="102"/>
+      <c r="AG157" s="102"/>
+      <c r="AH157" s="102"/>
+      <c r="AI157" s="102"/>
       <c r="AJ157" s="33" t="n">
         <v>156</v>
       </c>
-      <c r="AK157" s="108" t="s">
+      <c r="AK157" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="AL157" s="103"/>
-      <c r="AM157" s="103"/>
-      <c r="AN157" s="103"/>
-      <c r="AO157" s="103"/>
+      <c r="AL157" s="102"/>
+      <c r="AM157" s="102"/>
+      <c r="AN157" s="102"/>
+      <c r="AO157" s="102"/>
     </row>
     <row r="158" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="15" t="n">
@@ -15490,7 +15485,7 @@
       <c r="C158" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D158" s="100" t="s">
+      <c r="D158" s="99" t="s">
         <v>453</v>
       </c>
       <c r="E158" s="82" t="s">
@@ -15499,51 +15494,51 @@
       <c r="F158" s="82" t="s">
         <v>471</v>
       </c>
-      <c r="G158" s="109"/>
-      <c r="H158" s="105" t="s">
+      <c r="G158" s="108"/>
+      <c r="H158" s="104" t="s">
         <v>472</v>
       </c>
-      <c r="I158" s="104" t="s">
+      <c r="I158" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="J158" s="103"/>
-      <c r="K158" s="105"/>
-      <c r="L158" s="105"/>
-      <c r="M158" s="103"/>
-      <c r="N158" s="103"/>
-      <c r="O158" s="103"/>
-      <c r="P158" s="103"/>
-      <c r="Q158" s="103"/>
-      <c r="R158" s="103"/>
-      <c r="S158" s="103"/>
-      <c r="T158" s="103"/>
-      <c r="U158" s="103"/>
-      <c r="V158" s="103"/>
-      <c r="W158" s="103"/>
-      <c r="X158" s="103"/>
-      <c r="Y158" s="106"/>
-      <c r="Z158" s="103"/>
-      <c r="AA158" s="103"/>
-      <c r="AB158" s="103"/>
-      <c r="AC158" s="103"/>
-      <c r="AD158" s="103" t="n">
+      <c r="J158" s="102"/>
+      <c r="K158" s="104"/>
+      <c r="L158" s="104"/>
+      <c r="M158" s="102"/>
+      <c r="N158" s="102"/>
+      <c r="O158" s="102"/>
+      <c r="P158" s="102"/>
+      <c r="Q158" s="102"/>
+      <c r="R158" s="102"/>
+      <c r="S158" s="102"/>
+      <c r="T158" s="102"/>
+      <c r="U158" s="102"/>
+      <c r="V158" s="102"/>
+      <c r="W158" s="102"/>
+      <c r="X158" s="102"/>
+      <c r="Y158" s="105"/>
+      <c r="Z158" s="102"/>
+      <c r="AA158" s="102"/>
+      <c r="AB158" s="102"/>
+      <c r="AC158" s="102"/>
+      <c r="AD158" s="102" t="n">
         <v>0</v>
       </c>
-      <c r="AE158" s="103"/>
-      <c r="AF158" s="103"/>
-      <c r="AG158" s="103"/>
-      <c r="AH158" s="103"/>
-      <c r="AI158" s="103"/>
+      <c r="AE158" s="102"/>
+      <c r="AF158" s="102"/>
+      <c r="AG158" s="102"/>
+      <c r="AH158" s="102"/>
+      <c r="AI158" s="102"/>
       <c r="AJ158" s="21" t="n">
         <v>157</v>
       </c>
-      <c r="AK158" s="108" t="s">
+      <c r="AK158" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="AL158" s="103"/>
-      <c r="AM158" s="103"/>
-      <c r="AN158" s="103"/>
-      <c r="AO158" s="103"/>
+      <c r="AL158" s="102"/>
+      <c r="AM158" s="102"/>
+      <c r="AN158" s="102"/>
+      <c r="AO158" s="102"/>
     </row>
     <row r="159" customFormat="false" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="25" t="n">
@@ -15555,7 +15550,7 @@
       <c r="C159" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D159" s="100" t="s">
+      <c r="D159" s="99" t="s">
         <v>453</v>
       </c>
       <c r="E159" s="82" t="s">
@@ -15564,51 +15559,51 @@
       <c r="F159" s="82" t="s">
         <v>474</v>
       </c>
-      <c r="G159" s="109"/>
-      <c r="H159" s="105" t="s">
+      <c r="G159" s="108"/>
+      <c r="H159" s="104" t="s">
         <v>475</v>
       </c>
-      <c r="I159" s="104" t="s">
+      <c r="I159" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="J159" s="103"/>
-      <c r="K159" s="105"/>
-      <c r="L159" s="105"/>
-      <c r="M159" s="103"/>
-      <c r="N159" s="103"/>
-      <c r="O159" s="103"/>
-      <c r="P159" s="103"/>
-      <c r="Q159" s="103"/>
-      <c r="R159" s="103"/>
-      <c r="S159" s="103"/>
-      <c r="T159" s="103"/>
-      <c r="U159" s="103"/>
-      <c r="V159" s="103"/>
-      <c r="W159" s="103"/>
-      <c r="X159" s="103"/>
-      <c r="Y159" s="106"/>
-      <c r="Z159" s="103"/>
-      <c r="AA159" s="103"/>
-      <c r="AB159" s="103"/>
-      <c r="AC159" s="103"/>
-      <c r="AD159" s="103" t="n">
+      <c r="J159" s="102"/>
+      <c r="K159" s="104"/>
+      <c r="L159" s="104"/>
+      <c r="M159" s="102"/>
+      <c r="N159" s="102"/>
+      <c r="O159" s="102"/>
+      <c r="P159" s="102"/>
+      <c r="Q159" s="102"/>
+      <c r="R159" s="102"/>
+      <c r="S159" s="102"/>
+      <c r="T159" s="102"/>
+      <c r="U159" s="102"/>
+      <c r="V159" s="102"/>
+      <c r="W159" s="102"/>
+      <c r="X159" s="102"/>
+      <c r="Y159" s="105"/>
+      <c r="Z159" s="102"/>
+      <c r="AA159" s="102"/>
+      <c r="AB159" s="102"/>
+      <c r="AC159" s="102"/>
+      <c r="AD159" s="102" t="n">
         <v>0</v>
       </c>
-      <c r="AE159" s="103"/>
-      <c r="AF159" s="103"/>
-      <c r="AG159" s="103"/>
-      <c r="AH159" s="103"/>
-      <c r="AI159" s="103"/>
+      <c r="AE159" s="102"/>
+      <c r="AF159" s="102"/>
+      <c r="AG159" s="102"/>
+      <c r="AH159" s="102"/>
+      <c r="AI159" s="102"/>
       <c r="AJ159" s="33" t="n">
         <v>158</v>
       </c>
-      <c r="AK159" s="108" t="s">
+      <c r="AK159" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="AL159" s="103"/>
-      <c r="AM159" s="103"/>
-      <c r="AN159" s="103"/>
-      <c r="AO159" s="103"/>
+      <c r="AL159" s="102"/>
+      <c r="AM159" s="102"/>
+      <c r="AN159" s="102"/>
+      <c r="AO159" s="102"/>
     </row>
     <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15" t="n">
@@ -15620,7 +15615,7 @@
       <c r="C160" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D160" s="100" t="s">
+      <c r="D160" s="99" t="s">
         <v>453</v>
       </c>
       <c r="E160" s="82" t="s">
@@ -15629,53 +15624,53 @@
       <c r="F160" s="82" t="s">
         <v>477</v>
       </c>
-      <c r="G160" s="109" t="s">
+      <c r="G160" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="H160" s="105" t="s">
+      <c r="H160" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="I160" s="104" t="s">
+      <c r="I160" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="J160" s="103"/>
-      <c r="K160" s="105"/>
-      <c r="L160" s="105"/>
-      <c r="M160" s="103"/>
-      <c r="N160" s="103"/>
-      <c r="O160" s="103"/>
-      <c r="P160" s="103"/>
-      <c r="Q160" s="103"/>
-      <c r="R160" s="103"/>
-      <c r="S160" s="103"/>
-      <c r="T160" s="103"/>
-      <c r="U160" s="103"/>
-      <c r="V160" s="103"/>
-      <c r="W160" s="103"/>
-      <c r="X160" s="103"/>
-      <c r="Y160" s="106"/>
-      <c r="Z160" s="103"/>
-      <c r="AA160" s="103"/>
-      <c r="AB160" s="103"/>
-      <c r="AC160" s="103"/>
-      <c r="AD160" s="103" t="n">
+      <c r="J160" s="102"/>
+      <c r="K160" s="104"/>
+      <c r="L160" s="104"/>
+      <c r="M160" s="102"/>
+      <c r="N160" s="102"/>
+      <c r="O160" s="102"/>
+      <c r="P160" s="102"/>
+      <c r="Q160" s="102"/>
+      <c r="R160" s="102"/>
+      <c r="S160" s="102"/>
+      <c r="T160" s="102"/>
+      <c r="U160" s="102"/>
+      <c r="V160" s="102"/>
+      <c r="W160" s="102"/>
+      <c r="X160" s="102"/>
+      <c r="Y160" s="105"/>
+      <c r="Z160" s="102"/>
+      <c r="AA160" s="102"/>
+      <c r="AB160" s="102"/>
+      <c r="AC160" s="102"/>
+      <c r="AD160" s="102" t="n">
         <v>0</v>
       </c>
-      <c r="AE160" s="103"/>
-      <c r="AF160" s="103"/>
-      <c r="AG160" s="103"/>
-      <c r="AH160" s="103"/>
-      <c r="AI160" s="103"/>
+      <c r="AE160" s="102"/>
+      <c r="AF160" s="102"/>
+      <c r="AG160" s="102"/>
+      <c r="AH160" s="102"/>
+      <c r="AI160" s="102"/>
       <c r="AJ160" s="21" t="n">
         <v>159</v>
       </c>
-      <c r="AK160" s="108" t="s">
+      <c r="AK160" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="AL160" s="103"/>
-      <c r="AM160" s="103"/>
-      <c r="AN160" s="103"/>
-      <c r="AO160" s="103"/>
+      <c r="AL160" s="102"/>
+      <c r="AM160" s="102"/>
+      <c r="AN160" s="102"/>
+      <c r="AO160" s="102"/>
     </row>
     <row r="161" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="25" t="n">
@@ -15687,7 +15682,7 @@
       <c r="C161" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D161" s="100" t="s">
+      <c r="D161" s="99" t="s">
         <v>453</v>
       </c>
       <c r="E161" s="82" t="s">
@@ -15696,53 +15691,53 @@
       <c r="F161" s="82" t="s">
         <v>477</v>
       </c>
-      <c r="G161" s="109" t="s">
+      <c r="G161" s="108" t="s">
         <v>306</v>
       </c>
-      <c r="H161" s="105" t="s">
+      <c r="H161" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="I161" s="104" t="s">
+      <c r="I161" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="J161" s="103"/>
-      <c r="K161" s="105"/>
-      <c r="L161" s="105"/>
-      <c r="M161" s="103"/>
-      <c r="N161" s="103"/>
-      <c r="O161" s="103"/>
-      <c r="P161" s="103"/>
-      <c r="Q161" s="103"/>
-      <c r="R161" s="103"/>
-      <c r="S161" s="103"/>
-      <c r="T161" s="103"/>
-      <c r="U161" s="103"/>
-      <c r="V161" s="103"/>
-      <c r="W161" s="103"/>
-      <c r="X161" s="103"/>
-      <c r="Y161" s="106"/>
-      <c r="Z161" s="103"/>
-      <c r="AA161" s="103"/>
-      <c r="AB161" s="103"/>
-      <c r="AC161" s="103"/>
-      <c r="AD161" s="103" t="n">
+      <c r="J161" s="102"/>
+      <c r="K161" s="104"/>
+      <c r="L161" s="104"/>
+      <c r="M161" s="102"/>
+      <c r="N161" s="102"/>
+      <c r="O161" s="102"/>
+      <c r="P161" s="102"/>
+      <c r="Q161" s="102"/>
+      <c r="R161" s="102"/>
+      <c r="S161" s="102"/>
+      <c r="T161" s="102"/>
+      <c r="U161" s="102"/>
+      <c r="V161" s="102"/>
+      <c r="W161" s="102"/>
+      <c r="X161" s="102"/>
+      <c r="Y161" s="105"/>
+      <c r="Z161" s="102"/>
+      <c r="AA161" s="102"/>
+      <c r="AB161" s="102"/>
+      <c r="AC161" s="102"/>
+      <c r="AD161" s="102" t="n">
         <v>0</v>
       </c>
-      <c r="AE161" s="103"/>
-      <c r="AF161" s="103"/>
-      <c r="AG161" s="103"/>
-      <c r="AH161" s="103"/>
-      <c r="AI161" s="103"/>
+      <c r="AE161" s="102"/>
+      <c r="AF161" s="102"/>
+      <c r="AG161" s="102"/>
+      <c r="AH161" s="102"/>
+      <c r="AI161" s="102"/>
       <c r="AJ161" s="33" t="n">
         <v>160</v>
       </c>
-      <c r="AK161" s="108" t="s">
+      <c r="AK161" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="AL161" s="103"/>
-      <c r="AM161" s="103"/>
-      <c r="AN161" s="103"/>
-      <c r="AO161" s="103"/>
+      <c r="AL161" s="102"/>
+      <c r="AM161" s="102"/>
+      <c r="AN161" s="102"/>
+      <c r="AO161" s="102"/>
     </row>
     <row r="162" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="15" t="n">
@@ -15754,7 +15749,7 @@
       <c r="C162" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D162" s="100" t="s">
+      <c r="D162" s="99" t="s">
         <v>453</v>
       </c>
       <c r="E162" s="82" t="s">
@@ -15763,53 +15758,53 @@
       <c r="F162" s="82" t="s">
         <v>477</v>
       </c>
-      <c r="G162" s="109" t="s">
+      <c r="G162" s="108" t="s">
         <v>328</v>
       </c>
-      <c r="H162" s="105" t="s">
+      <c r="H162" s="104" t="s">
         <v>480</v>
       </c>
-      <c r="I162" s="104" t="s">
+      <c r="I162" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="J162" s="103"/>
-      <c r="K162" s="105"/>
-      <c r="L162" s="105"/>
-      <c r="M162" s="103"/>
-      <c r="N162" s="103"/>
-      <c r="O162" s="103"/>
-      <c r="P162" s="103"/>
-      <c r="Q162" s="103"/>
-      <c r="R162" s="103"/>
-      <c r="S162" s="103"/>
-      <c r="T162" s="103"/>
-      <c r="U162" s="103"/>
-      <c r="V162" s="103"/>
-      <c r="W162" s="103"/>
-      <c r="X162" s="103"/>
-      <c r="Y162" s="106"/>
-      <c r="Z162" s="103"/>
-      <c r="AA162" s="103"/>
-      <c r="AB162" s="103"/>
-      <c r="AC162" s="103"/>
-      <c r="AD162" s="103" t="n">
+      <c r="J162" s="102"/>
+      <c r="K162" s="104"/>
+      <c r="L162" s="104"/>
+      <c r="M162" s="102"/>
+      <c r="N162" s="102"/>
+      <c r="O162" s="102"/>
+      <c r="P162" s="102"/>
+      <c r="Q162" s="102"/>
+      <c r="R162" s="102"/>
+      <c r="S162" s="102"/>
+      <c r="T162" s="102"/>
+      <c r="U162" s="102"/>
+      <c r="V162" s="102"/>
+      <c r="W162" s="102"/>
+      <c r="X162" s="102"/>
+      <c r="Y162" s="105"/>
+      <c r="Z162" s="102"/>
+      <c r="AA162" s="102"/>
+      <c r="AB162" s="102"/>
+      <c r="AC162" s="102"/>
+      <c r="AD162" s="102" t="n">
         <v>0</v>
       </c>
-      <c r="AE162" s="103"/>
-      <c r="AF162" s="103"/>
-      <c r="AG162" s="103"/>
-      <c r="AH162" s="103"/>
-      <c r="AI162" s="103"/>
+      <c r="AE162" s="102"/>
+      <c r="AF162" s="102"/>
+      <c r="AG162" s="102"/>
+      <c r="AH162" s="102"/>
+      <c r="AI162" s="102"/>
       <c r="AJ162" s="21" t="n">
         <v>161</v>
       </c>
-      <c r="AK162" s="108" t="s">
+      <c r="AK162" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="AL162" s="103"/>
-      <c r="AM162" s="103"/>
-      <c r="AN162" s="103"/>
-      <c r="AO162" s="103"/>
+      <c r="AL162" s="102"/>
+      <c r="AM162" s="102"/>
+      <c r="AN162" s="102"/>
+      <c r="AO162" s="102"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AO162"/>
@@ -15831,17 +15826,17 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC126:AF126 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="110" t="s">
         <v>443</v>
       </c>
     </row>
@@ -15868,58 +15863,58 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AC126:AF126 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="112" t="s">
         <v>481</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="112" t="s">
         <v>482</v>
       </c>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="113" t="s">
+      <c r="J1" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="K1" s="112" t="s">
         <v>483</v>
       </c>
-      <c r="L1" s="113" t="s">
+      <c r="L1" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="113" t="s">
+      <c r="M1" s="112" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="113" t="s">
         <v>484</v>
       </c>
     </row>

--- a/Projects/CCRU_SAND/Data/Convenience Small PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Convenience Small PoS 2018.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AQ$162</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AQ$150</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AQ$150</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AQ$150</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AQ$150</definedName>
@@ -44,7 +44,6 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AQ$150</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AQ$150</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AQ$150</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AQ$150</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2622,25 +2621,25 @@
   </sheetPr>
   <dimension ref="A1:AQ162"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I77" activeCellId="0" sqref="I77"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G124" activeCellId="0" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="23" min="16" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
